--- a/Gimmix/MS Exp Curve.xlsx
+++ b/Gimmix/MS Exp Curve.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Creature</t>
   </si>
@@ -55,6 +56,81 @@
   </si>
   <si>
     <t>To get to the next Lv</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Lv</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Min Dmg</t>
+  </si>
+  <si>
+    <t>Max Dmg</t>
+  </si>
+  <si>
+    <t>Wep Atk</t>
+  </si>
+  <si>
+    <t>Passive Str Buff</t>
+  </si>
+  <si>
+    <t>Tangle Wire</t>
+  </si>
+  <si>
+    <t>Smokestack</t>
+  </si>
+  <si>
+    <t>Trinisphere</t>
+  </si>
+  <si>
+    <t>Cloudpost</t>
+  </si>
+  <si>
+    <t>Glimmerpost</t>
+  </si>
+  <si>
+    <t>Thespian's Stage</t>
+  </si>
+  <si>
+    <t>Crystal Vein</t>
+  </si>
+  <si>
+    <t>Buried Ruin</t>
+  </si>
+  <si>
+    <t>Static Orb</t>
+  </si>
+  <si>
+    <t>Winter Orb</t>
+  </si>
+  <si>
+    <t>Ghirapur Orrery</t>
+  </si>
+  <si>
+    <t>Expedition Map</t>
+  </si>
+  <si>
+    <t>Bottled Cloister</t>
+  </si>
+  <si>
+    <t>Inventor's Fair</t>
+  </si>
+  <si>
+    <t>Ensnaring Bridge?</t>
   </si>
 </sst>
 </file>
@@ -1564,11 +1640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="433999144"/>
-        <c:axId val="433998752"/>
+        <c:axId val="277733464"/>
+        <c:axId val="277733072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433999144"/>
+        <c:axId val="277733464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433998752"/>
+        <c:crossAx val="277733072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1619,7 +1695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433998752"/>
+        <c:axId val="277733072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433999144"/>
+        <c:crossAx val="277733464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2585,7 +2661,9 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="4" width="6.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2628,13 +2706,25 @@
         <f>SUM(B3:B8)</f>
         <v>12</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
       <c r="G3" s="1">
         <f>SUM(F3:F36)</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3" si="0">SUM(J3:J36)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2644,6 +2734,18 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -2652,6 +2754,18 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -2660,6 +2774,46 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -2667,10 +2821,35 @@
       </c>
       <c r="B9" s="1">
         <f>SUM(C3,G3,K3)</f>
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E3:F11">
+    <sortCondition descending="1" ref="F3:F11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2678,10 +2857,7063 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>ROUNDDOWN(SUM((B3*5)+8 +Y3),0)</f>
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <f>ROUNDDOWN(SUM((B3/2)+4),0)</f>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDDOWN(SUM((B3+17 )*(1+((B3-1)*0.008))),0)</f>
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <f>ROUNDDOWN(SUM(0.1*M3),0)</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>ROUNDDOWN(SUM(1.1*((4*C3)+D3)*(H3/100)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <f>ROUNDUP(SUM((-0.0949*B3)+18.0949),0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">ROUNDDOWN(SUM((B4*5)+8 +Y4),0)</f>
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">ROUNDDOWN(SUM((B4/2)+4),0)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>ROUNDDOWN(SUM((B4+17 )*(1+((B4-1)*0.008))),0)</f>
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K29" si="2">ROUNDDOWN(SUM(0.1*M4),0)</f>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f>ROUNDDOWN(SUM(1.1*((4*C4)+D4)*(H4/100)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y67" si="3">ROUNDUP(SUM((-0.0949*B4)+18.0949),0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="4">ROUNDDOWN(SUM((B5+17 )*(1+((B5-1)*0.008))),0)</f>
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M68" si="5">ROUNDDOWN(SUM(1.1*((4*C5)+D5)*(H5/100)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f>ROUNDDOWN(SUM((B11+17 )*(1+((B11-1)*0.008))),0)</f>
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f>ROUNDDOWN(SUM((B12+17 )*(1+((B12-1)*0.008))),0)</f>
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H76" si="6">ROUNDDOWN(SUM((B13+17 )*(1+((B13-1)*0.008))),0)</f>
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="K30">
+        <f>ROUNDDOWN(SUM(0.2*M30),0)</f>
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="K31">
+        <f>ROUNDDOWN(SUM(0.2*M31),0)</f>
+        <v>85</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>427</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <f>ROUNDDOWN(SUM(0.3*M32),0)</f>
+        <v>134</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>448</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="K33">
+        <f>ROUNDDOWN(SUM(0.3*M33),0)</f>
+        <v>143</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>477</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="K34">
+        <f>ROUNDDOWN(SUM(0.4*M34),0)</f>
+        <v>202</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="K35">
+        <f>ROUNDDOWN(SUM(0.5*M35),0)</f>
+        <v>263</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>526</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <f>ROUNDDOWN(SUM(0.5*M36),0)</f>
+        <v>279</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>558</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <f>ROUNDDOWN(SUM(0.6*M37),0)</f>
+        <v>354</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K101" si="7">ROUNDDOWN(SUM(0.6*M38),0)</f>
+        <v>368</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>614</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>388</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>648</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>683</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>430</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>718</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>447</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>469</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>782</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>821</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>515</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>859</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>531</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>885</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>555</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>925</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>967</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>605</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>1009</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>631</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>1053</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>658</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>1097</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f>ROUNDDOWN(SUM((B52*5)+23 +Y52),0)</f>
+        <v>287</v>
+      </c>
+      <c r="D52">
+        <f>ROUNDDOWN(SUM((B52/2)+19),0)</f>
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>731</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>1219</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C116" si="8">ROUNDDOWN(SUM((B53*5)+23 +Y53),0)</f>
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D116" si="9">ROUNDDOWN(SUM((B53/2)+19),0)</f>
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>759</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>1266</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>297</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>789</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>1315</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>818</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>1364</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>846</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>1410</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>311</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>876</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>1461</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="8"/>
+        <v>316</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>908</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>1514</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>939</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>1566</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="8"/>
+        <v>326</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>972</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>1621</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>1005</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>1675</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>1038</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>1731</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="8"/>
+        <v>341</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>1072</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>1787</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="8"/>
+        <v>346</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>1107</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>1845</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="8"/>
+        <v>351</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>1141</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>1903</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="8"/>
+        <v>356</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>1177</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>1963</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>1210</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>2017</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>1257</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>2095</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" ref="Y68:Y131" si="10">ROUNDUP(SUM((-0.0949*B68)+18.0949),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>370</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>1294</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69:M132" si="11">ROUNDDOWN(SUM(1.1*((4*C69)+D69)*(H69/100)),0)</f>
+        <v>2157</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>1332</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>2220</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>380</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>1369</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>2283</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>385</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>1420</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>2367</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>390</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>1459</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>2432</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>395</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>1499</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>2499</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>1539</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>2566</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>1592</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>2654</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>409</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77:H140" si="12">ROUNDDOWN(SUM((B77+17 )*(1+((B77-1)*0.008))),0)</f>
+        <v>146</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>1630</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>2717</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>414</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>1672</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>2788</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>419</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>1726</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>2878</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="8"/>
+        <v>424</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>1770</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>2951</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="8"/>
+        <v>429</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>1814</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>3024</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>1871</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>3119</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="8"/>
+        <v>439</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>1916</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>3194</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="8"/>
+        <v>444</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>1974</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>3291</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="8"/>
+        <v>449</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>2020</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>3368</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>2080</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>3468</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="8"/>
+        <v>459</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>2128</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>3547</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="8"/>
+        <v>463</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>2185</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>3642</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25">
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>2233</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>3722</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25">
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="8"/>
+        <v>473</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>2296</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>3827</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="8"/>
+        <v>478</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>2346</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>3910</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>2410</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>4017</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="8"/>
+        <v>488</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>2461</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>4102</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="8"/>
+        <v>493</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="12"/>
+        <v>188</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>2527</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>4212</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:25">
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="8"/>
+        <v>498</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>2579</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>4299</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25">
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="8"/>
+        <v>503</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>2646</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>4411</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="8"/>
+        <v>508</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>2713</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>4523</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25">
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>2763</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>4606</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="12"/>
+        <v>201</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>2832</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>4720</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="8"/>
+        <v>522</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="12"/>
+        <v>204</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>2902</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>4838</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="12"/>
+        <v>206</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>2958</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>4930</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="8"/>
+        <v>532</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="12"/>
+        <v>209</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ref="K102:K165" si="13">ROUNDDOWN(SUM(0.6*M102),0)</f>
+        <v>3030</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>5050</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25">
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="8"/>
+        <v>537</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="12"/>
+        <v>212</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="13"/>
+        <v>3102</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>5170</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25">
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="8"/>
+        <v>542</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="12"/>
+        <v>215</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="13"/>
+        <v>3175</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>5292</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25">
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="8"/>
+        <v>547</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="12"/>
+        <v>217</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="13"/>
+        <v>3233</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>5389</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25">
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="8"/>
+        <v>552</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="12"/>
+        <v>220</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="13"/>
+        <v>3309</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>5515</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25">
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="8"/>
+        <v>557</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="12"/>
+        <v>223</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="13"/>
+        <v>3383</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>5639</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:25">
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="12"/>
+        <v>226</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="13"/>
+        <v>3460</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>5767</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:25">
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="12"/>
+        <v>229</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="13"/>
+        <v>3530</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>5884</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:25">
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="8"/>
+        <v>571</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="12"/>
+        <v>232</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="13"/>
+        <v>3609</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>6015</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:25">
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="12"/>
+        <v>234</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="13"/>
+        <v>3670</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>6118</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:25">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="8"/>
+        <v>581</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="12"/>
+        <v>237</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="13"/>
+        <v>3750</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>6251</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:25">
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="8"/>
+        <v>586</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="13"/>
+        <v>3829</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>6383</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="2:25">
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="8"/>
+        <v>591</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="12"/>
+        <v>243</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="13"/>
+        <v>3911</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>6519</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:25">
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="8"/>
+        <v>596</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="12"/>
+        <v>246</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="13"/>
+        <v>3992</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>6654</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="2:25">
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="8"/>
+        <v>601</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="12"/>
+        <v>249</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="13"/>
+        <v>4075</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>6792</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:25">
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ref="C117:C180" si="14">ROUNDDOWN(SUM((B117*5)+23 +Y117),0)</f>
+        <v>606</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ref="D117:D180" si="15">ROUNDDOWN(SUM((B117/2)+19),0)</f>
+        <v>76</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="12"/>
+        <v>252</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="13"/>
+        <v>4158</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>6930</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:25">
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="14"/>
+        <v>611</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="15"/>
+        <v>77</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="12"/>
+        <v>255</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="13"/>
+        <v>4242</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>7071</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:25">
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="14"/>
+        <v>615</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="15"/>
+        <v>77</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="12"/>
+        <v>258</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="13"/>
+        <v>4320</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="11"/>
+        <v>7200</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:25">
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="14"/>
+        <v>620</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="12"/>
+        <v>261</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="13"/>
+        <v>4406</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="11"/>
+        <v>7344</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:25">
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="14"/>
+        <v>625</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="12"/>
+        <v>264</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="13"/>
+        <v>4491</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="11"/>
+        <v>7486</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:25">
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="14"/>
+        <v>630</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="12"/>
+        <v>267</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="13"/>
+        <v>4579</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="11"/>
+        <v>7633</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:25">
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="14"/>
+        <v>635</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="13"/>
+        <v>4666</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="11"/>
+        <v>7778</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:25">
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="14"/>
+        <v>640</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="12"/>
+        <v>273</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="13"/>
+        <v>4756</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="11"/>
+        <v>7927</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="2:25">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="14"/>
+        <v>645</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="12"/>
+        <v>276</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="13"/>
+        <v>4845</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="11"/>
+        <v>8075</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:25">
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="14"/>
+        <v>650</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="12"/>
+        <v>279</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="13"/>
+        <v>4936</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="11"/>
+        <v>8227</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="2:25">
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="14"/>
+        <v>655</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="12"/>
+        <v>282</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="13"/>
+        <v>5026</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="11"/>
+        <v>8378</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:25">
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="14"/>
+        <v>660</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="12"/>
+        <v>286</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="13"/>
+        <v>5137</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="11"/>
+        <v>8563</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:25">
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="14"/>
+        <v>665</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="12"/>
+        <v>289</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="13"/>
+        <v>5229</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="11"/>
+        <v>8716</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="2:25">
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="14"/>
+        <v>669</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="13"/>
+        <v>5316</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="11"/>
+        <v>8861</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:25">
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="14"/>
+        <v>674</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="12"/>
+        <v>295</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="13"/>
+        <v>5410</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="11"/>
+        <v>9017</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:25">
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="14"/>
+        <v>679</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="12"/>
+        <v>298</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="13"/>
+        <v>5506</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="11"/>
+        <v>9178</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" ref="Y132:Y195" si="16">ROUNDUP(SUM((-0.0949*B132)+18.0949),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:25">
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="14"/>
+        <v>684</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="12"/>
+        <v>301</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="13"/>
+        <v>5602</v>
+      </c>
+      <c r="M133">
+        <f t="shared" ref="M133:M196" si="17">ROUNDDOWN(SUM(1.1*((4*C133)+D133)*(H133/100)),0)</f>
+        <v>9337</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:25">
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="14"/>
+        <v>689</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="12"/>
+        <v>305</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="13"/>
+        <v>5718</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="17"/>
+        <v>9531</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:25">
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="14"/>
+        <v>694</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="12"/>
+        <v>308</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="13"/>
+        <v>5815</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="17"/>
+        <v>9693</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:25">
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="14"/>
+        <v>699</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="12"/>
+        <v>311</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="13"/>
+        <v>5915</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="17"/>
+        <v>9859</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:25">
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="14"/>
+        <v>704</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="12"/>
+        <v>314</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="13"/>
+        <v>6013</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="17"/>
+        <v>10023</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:25">
+      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="14"/>
+        <v>709</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="12"/>
+        <v>318</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="13"/>
+        <v>6134</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="17"/>
+        <v>10224</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:25">
+      <c r="B139">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="14"/>
+        <v>714</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="12"/>
+        <v>321</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="13"/>
+        <v>6234</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="17"/>
+        <v>10391</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:25">
+      <c r="B140">
+        <v>138</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="14"/>
+        <v>718</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="12"/>
+        <v>324</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="13"/>
+        <v>6329</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="17"/>
+        <v>10549</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:25">
+      <c r="B141">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="14"/>
+        <v>723</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ref="H141:H147" si="18">ROUNDDOWN(SUM((B141+17 )*(1+((B141-1)*0.008))),0)</f>
+        <v>328</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="13"/>
+        <v>6450</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="17"/>
+        <v>10751</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:25">
+      <c r="B142">
+        <v>140</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="14"/>
+        <v>728</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="15"/>
+        <v>89</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="18"/>
+        <v>331</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="13"/>
+        <v>6555</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="17"/>
+        <v>10926</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:25">
+      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="14"/>
+        <v>733</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="15"/>
+        <v>89</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="18"/>
+        <v>334</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="13"/>
+        <v>6659</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="17"/>
+        <v>11099</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:25">
+      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="14"/>
+        <v>738</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="18"/>
+        <v>338</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="13"/>
+        <v>6786</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="17"/>
+        <v>11310</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:25">
+      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="14"/>
+        <v>743</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="18"/>
+        <v>341</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="13"/>
+        <v>6891</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="17"/>
+        <v>11485</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:25">
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="14"/>
+        <v>748</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="18"/>
+        <v>345</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="13"/>
+        <v>7019</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="17"/>
+        <v>11699</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:25">
+      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="14"/>
+        <v>753</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="18"/>
+        <v>348</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="13"/>
+        <v>7126</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="17"/>
+        <v>11878</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:25">
+      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="14"/>
+        <v>758</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="H148">
+        <f>ROUNDDOWN(SUM((B148+17 )*(1+((B148-1)*0.008))),0)</f>
+        <v>352</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="13"/>
+        <v>7257</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="17"/>
+        <v>12096</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:25">
+      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="14"/>
+        <v>763</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <f>ROUNDDOWN(SUM((B149+17 )*(1+((B149-1)*0.008))),0)</f>
+        <v>355</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="13"/>
+        <v>7366</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="17"/>
+        <v>12277</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:25">
+      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="14"/>
+        <v>768</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="H150">
+        <f t="shared" ref="H150:H155" si="19">ROUNDDOWN(SUM((B150+17 )*(1+((B150-1)*0.008))),0)</f>
+        <v>359</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="13"/>
+        <v>7498</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="17"/>
+        <v>12498</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:25">
+      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="14"/>
+        <v>772</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="19"/>
+        <v>362</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="13"/>
+        <v>7599</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="17"/>
+        <v>12666</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:25">
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="14"/>
+        <v>777</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="19"/>
+        <v>366</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="13"/>
+        <v>7734</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="17"/>
+        <v>12891</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:25">
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="14"/>
+        <v>782</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="19"/>
+        <v>369</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="13"/>
+        <v>7846</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="17"/>
+        <v>13078</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:25">
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="14"/>
+        <v>787</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="19"/>
+        <v>373</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="13"/>
+        <v>7983</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="17"/>
+        <v>13306</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="2:25">
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="14"/>
+        <v>792</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="19"/>
+        <v>376</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="13"/>
+        <v>8097</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="17"/>
+        <v>13495</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="2:25">
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="14"/>
+        <v>797</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="H156">
+        <f>ROUNDDOWN(SUM((B156+17 )*(1+((B156-1)*0.008))),0)</f>
+        <v>380</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="13"/>
+        <v>8236</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="17"/>
+        <v>13727</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:25">
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="14"/>
+        <v>802</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="H157">
+        <f>ROUNDDOWN(SUM((B157+17 )*(1+((B157-1)*0.008))),0)</f>
+        <v>383</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="13"/>
+        <v>8351</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="17"/>
+        <v>13919</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:25">
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="14"/>
+        <v>807</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="H158">
+        <f t="shared" ref="H158:H202" si="20">ROUNDDOWN(SUM((B158+17 )*(1+((B158-1)*0.008))),0)</f>
+        <v>387</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="13"/>
+        <v>8492</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="17"/>
+        <v>14154</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:25">
+      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="14"/>
+        <v>812</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="20"/>
+        <v>391</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="13"/>
+        <v>8631</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="17"/>
+        <v>14386</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:25">
+      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="14"/>
+        <v>817</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="20"/>
+        <v>394</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="13"/>
+        <v>8752</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="17"/>
+        <v>14588</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:25">
+      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="14"/>
+        <v>822</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="20"/>
+        <v>398</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="13"/>
+        <v>8893</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="17"/>
+        <v>14823</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:25">
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="14"/>
+        <v>826</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="20"/>
+        <v>402</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="13"/>
+        <v>9028</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="17"/>
+        <v>15048</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:25">
+      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="14"/>
+        <v>831</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="20"/>
+        <v>405</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="13"/>
+        <v>9149</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="17"/>
+        <v>15249</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:25">
+      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="14"/>
+        <v>836</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="20"/>
+        <v>409</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="13"/>
+        <v>9296</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="17"/>
+        <v>15494</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:25">
+      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="14"/>
+        <v>841</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="20"/>
+        <v>413</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="13"/>
+        <v>9441</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="17"/>
+        <v>15736</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:25">
+      <c r="B166">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="14"/>
+        <v>846</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="15"/>
+        <v>101</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="20"/>
+        <v>417</v>
+      </c>
+      <c r="K166">
+        <f t="shared" ref="K166:K202" si="21">ROUNDDOWN(SUM(0.6*M166),0)</f>
+        <v>9591</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="17"/>
+        <v>15985</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:25">
+      <c r="B167">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="14"/>
+        <v>851</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="15"/>
+        <v>101</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="20"/>
+        <v>420</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="21"/>
+        <v>9715</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="17"/>
+        <v>16193</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:25">
+      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="14"/>
+        <v>856</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="15"/>
+        <v>102</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="20"/>
+        <v>424</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="21"/>
+        <v>9867</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="17"/>
+        <v>16445</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:25">
+      <c r="B169">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="14"/>
+        <v>861</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="15"/>
+        <v>102</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="20"/>
+        <v>428</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="21"/>
+        <v>10016</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="17"/>
+        <v>16694</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:25">
+      <c r="B170">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="14"/>
+        <v>866</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="15"/>
+        <v>103</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="20"/>
+        <v>432</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="21"/>
+        <v>10170</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="17"/>
+        <v>16950</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:25">
+      <c r="B171">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="14"/>
+        <v>871</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="15"/>
+        <v>103</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="20"/>
+        <v>435</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="21"/>
+        <v>10297</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="17"/>
+        <v>17163</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:25">
+      <c r="B172">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="14"/>
+        <v>875</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="20"/>
+        <v>439</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="21"/>
+        <v>10441</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="17"/>
+        <v>17403</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:25">
+      <c r="B173">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="14"/>
+        <v>880</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="20"/>
+        <v>443</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="21"/>
+        <v>10595</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="17"/>
+        <v>17659</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:25">
+      <c r="B174">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="14"/>
+        <v>885</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="15"/>
+        <v>105</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="20"/>
+        <v>447</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="21"/>
+        <v>10753</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="17"/>
+        <v>17922</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:25">
+      <c r="B175">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="14"/>
+        <v>890</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="15"/>
+        <v>105</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="20"/>
+        <v>451</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="21"/>
+        <v>10909</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="17"/>
+        <v>18182</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:25">
+      <c r="B176">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="14"/>
+        <v>895</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="20"/>
+        <v>455</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="21"/>
+        <v>11068</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="17"/>
+        <v>18448</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:25">
+      <c r="B177">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="20"/>
+        <v>459</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="21"/>
+        <v>11226</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="17"/>
+        <v>18711</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:25">
+      <c r="B178">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="14"/>
+        <v>905</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="20"/>
+        <v>463</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="21"/>
+        <v>11388</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="17"/>
+        <v>18981</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:25">
+      <c r="B179">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="14"/>
+        <v>910</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="E179">
+        <v>4</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="20"/>
+        <v>467</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="21"/>
+        <v>11548</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="17"/>
+        <v>19248</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:25">
+      <c r="B180">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="14"/>
+        <v>915</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="20"/>
+        <v>471</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="21"/>
+        <v>11713</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="17"/>
+        <v>19522</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:25">
+      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181:C202" si="22">ROUNDDOWN(SUM((B181*5)+23 +Y181),0)</f>
+        <v>920</v>
+      </c>
+      <c r="D181">
+        <f t="shared" ref="D181:D202" si="23">ROUNDDOWN(SUM((B181/2)+19),0)</f>
+        <v>108</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="20"/>
+        <v>475</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="21"/>
+        <v>11875</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="17"/>
+        <v>19792</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:25">
+      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="22"/>
+        <v>925</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="23"/>
+        <v>109</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="20"/>
+        <v>479</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="21"/>
+        <v>12041</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="17"/>
+        <v>20069</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:25">
+      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="22"/>
+        <v>929</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="23"/>
+        <v>109</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="20"/>
+        <v>483</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="21"/>
+        <v>12193</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="17"/>
+        <v>20322</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:25">
+      <c r="B184">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="22"/>
+        <v>934</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="23"/>
+        <v>110</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="20"/>
+        <v>487</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="21"/>
+        <v>12361</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="17"/>
+        <v>20603</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:25">
+      <c r="B185">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="22"/>
+        <v>939</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="23"/>
+        <v>110</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="20"/>
+        <v>491</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="21"/>
+        <v>12528</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="17"/>
+        <v>20880</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:25">
+      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="22"/>
+        <v>944</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="23"/>
+        <v>111</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="20"/>
+        <v>495</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="21"/>
+        <v>12698</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="17"/>
+        <v>21164</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:25">
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="22"/>
+        <v>949</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="23"/>
+        <v>111</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="20"/>
+        <v>499</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="21"/>
+        <v>12867</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="17"/>
+        <v>21445</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:25">
+      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="22"/>
+        <v>954</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="20"/>
+        <v>503</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="21"/>
+        <v>13039</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="17"/>
+        <v>21733</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:25">
+      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="22"/>
+        <v>959</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="20"/>
+        <v>507</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="21"/>
+        <v>13210</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="17"/>
+        <v>22017</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:25">
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="22"/>
+        <v>964</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="23"/>
+        <v>113</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="20"/>
+        <v>511</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="21"/>
+        <v>13385</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="17"/>
+        <v>22309</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:25">
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="22"/>
+        <v>969</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="23"/>
+        <v>113</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="20"/>
+        <v>515</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="21"/>
+        <v>13558</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="17"/>
+        <v>22597</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:25">
+      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="22"/>
+        <v>974</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="23"/>
+        <v>114</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="20"/>
+        <v>519</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="21"/>
+        <v>13735</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="17"/>
+        <v>22893</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:25">
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="22"/>
+        <v>977</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="23"/>
+        <v>114</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="20"/>
+        <v>524</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="21"/>
+        <v>13909</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="17"/>
+        <v>23182</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:25">
+      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="22"/>
+        <v>982</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="20"/>
+        <v>528</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="21"/>
+        <v>14088</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="17"/>
+        <v>23481</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:25">
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="22"/>
+        <v>987</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="20"/>
+        <v>532</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="21"/>
+        <v>14265</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="17"/>
+        <v>23776</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:25">
+      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="22"/>
+        <v>992</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="23"/>
+        <v>116</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="20"/>
+        <v>536</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="21"/>
+        <v>14447</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="17"/>
+        <v>24079</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" ref="Y196:Y202" si="24">ROUNDUP(SUM((-0.0949*B196)+18.0949),0)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:25">
+      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="22"/>
+        <v>997</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="23"/>
+        <v>116</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="20"/>
+        <v>541</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="21"/>
+        <v>14653</v>
+      </c>
+      <c r="M197">
+        <f t="shared" ref="M197:M202" si="25">ROUNDDOWN(SUM(1.1*((4*C197)+D197)*(H197/100)),0)</f>
+        <v>24422</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:25">
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="22"/>
+        <v>1002</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="23"/>
+        <v>117</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="20"/>
+        <v>545</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="21"/>
+        <v>14837</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="25"/>
+        <v>24729</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:25">
+      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="22"/>
+        <v>1007</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="23"/>
+        <v>117</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="20"/>
+        <v>549</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="21"/>
+        <v>15018</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="25"/>
+        <v>25031</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:25">
+      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="22"/>
+        <v>1012</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="23"/>
+        <v>118</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="20"/>
+        <v>553</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="21"/>
+        <v>15204</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="25"/>
+        <v>25341</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:25">
+      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="22"/>
+        <v>1017</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="23"/>
+        <v>118</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="20"/>
+        <v>558</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="21"/>
+        <v>15415</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="25"/>
+        <v>25693</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:25">
+      <c r="B202">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="22"/>
+        <v>1022</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="23"/>
+        <v>119</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="20"/>
+        <v>562</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="21"/>
+        <v>15604</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="25"/>
+        <v>26007</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2718,7 +9950,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <f>SUM(C2+E1)</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(C2+E1)</f>
         <v>49</v>
       </c>
     </row>
@@ -2730,7 +9962,7 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <f>SUM(C3+E2)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
@@ -2742,7 +9974,7 @@
         <v>92</v>
       </c>
       <c r="E4">
-        <f>SUM(C4+E3)</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
     </row>
@@ -2754,7 +9986,7 @@
         <v>135</v>
       </c>
       <c r="E5">
-        <f>SUM(C5+E4)</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
     </row>
@@ -2766,7 +9998,7 @@
         <v>372</v>
       </c>
       <c r="E6">
-        <f>SUM(C6+E5)</f>
+        <f t="shared" si="0"/>
         <v>705</v>
       </c>
     </row>
@@ -2778,7 +10010,7 @@
         <v>560</v>
       </c>
       <c r="E7">
-        <f>SUM(C7+E6)</f>
+        <f t="shared" si="0"/>
         <v>1265</v>
       </c>
     </row>
@@ -2790,7 +10022,7 @@
         <v>840</v>
       </c>
       <c r="E8">
-        <f>SUM(C8+E7)</f>
+        <f t="shared" si="0"/>
         <v>2105</v>
       </c>
     </row>
@@ -2802,7 +10034,7 @@
         <v>1242</v>
       </c>
       <c r="E9" s="10">
-        <f>SUM(C9+E8)</f>
+        <f t="shared" si="0"/>
         <v>3347</v>
       </c>
     </row>
@@ -2814,7 +10046,7 @@
         <v>1144</v>
       </c>
       <c r="E10" s="10">
-        <f>SUM(C10+E9)</f>
+        <f t="shared" si="0"/>
         <v>4491</v>
       </c>
     </row>
@@ -2826,7 +10058,7 @@
         <v>1573</v>
       </c>
       <c r="E11" s="10">
-        <f>SUM(C11+E10)</f>
+        <f t="shared" si="0"/>
         <v>6064</v>
       </c>
     </row>
@@ -2838,7 +10070,7 @@
         <v>2144</v>
       </c>
       <c r="E12" s="10">
-        <f>SUM(C12+E11)</f>
+        <f t="shared" si="0"/>
         <v>8208</v>
       </c>
     </row>
@@ -2850,7 +10082,7 @@
         <v>2800</v>
       </c>
       <c r="E13" s="10">
-        <f>SUM(C13+E12)</f>
+        <f t="shared" si="0"/>
         <v>11008</v>
       </c>
     </row>
@@ -2862,7 +10094,7 @@
         <v>3640</v>
       </c>
       <c r="E14" s="10">
-        <f>SUM(C14+E13)</f>
+        <f t="shared" si="0"/>
         <v>14648</v>
       </c>
     </row>
@@ -2874,7 +10106,7 @@
         <v>4700</v>
       </c>
       <c r="E15" s="10">
-        <f>SUM(C15+E14)</f>
+        <f t="shared" si="0"/>
         <v>19348</v>
       </c>
     </row>
@@ -2886,7 +10118,7 @@
         <v>5893</v>
       </c>
       <c r="E16" s="10">
-        <f>SUM(C16+E15)</f>
+        <f t="shared" si="0"/>
         <v>25241</v>
       </c>
     </row>
@@ -2898,7 +10130,7 @@
         <v>7360</v>
       </c>
       <c r="E17" s="10">
-        <f>SUM(C17+E16)</f>
+        <f t="shared" si="0"/>
         <v>32601</v>
       </c>
     </row>
@@ -2910,7 +10142,7 @@
         <v>9144</v>
       </c>
       <c r="E18" s="10">
-        <f>SUM(C18+E17)</f>
+        <f t="shared" si="0"/>
         <v>41745</v>
       </c>
     </row>
@@ -2922,7 +10154,7 @@
         <v>11120</v>
       </c>
       <c r="E19" s="10">
-        <f>SUM(C19+E18)</f>
+        <f t="shared" si="0"/>
         <v>52865</v>
       </c>
     </row>
@@ -2934,7 +10166,7 @@
         <v>13477</v>
       </c>
       <c r="E20" s="10">
-        <f>SUM(C20+E19)</f>
+        <f t="shared" si="0"/>
         <v>66342</v>
       </c>
     </row>
@@ -2946,7 +10178,7 @@
         <v>16268</v>
       </c>
       <c r="E21" s="10">
-        <f>SUM(C21+E20)</f>
+        <f t="shared" si="0"/>
         <v>82610</v>
       </c>
     </row>
@@ -2958,7 +10190,7 @@
         <v>19320</v>
       </c>
       <c r="E22" s="10">
-        <f>SUM(C22+E21)</f>
+        <f t="shared" si="0"/>
         <v>101930</v>
       </c>
     </row>
@@ -2970,7 +10202,7 @@
         <v>22880</v>
       </c>
       <c r="E23" s="10">
-        <f>SUM(C23+E22)</f>
+        <f t="shared" si="0"/>
         <v>124810</v>
       </c>
     </row>
@@ -2982,7 +10214,7 @@
         <v>27008</v>
       </c>
       <c r="E24" s="10">
-        <f>SUM(C24+E23)</f>
+        <f t="shared" si="0"/>
         <v>151818</v>
       </c>
     </row>
@@ -2994,7 +10226,7 @@
         <v>31477</v>
       </c>
       <c r="E25" s="10">
-        <f>SUM(C25+E24)</f>
+        <f t="shared" si="0"/>
         <v>183295</v>
       </c>
     </row>
@@ -3006,7 +10238,7 @@
         <v>36600</v>
       </c>
       <c r="E26" s="10">
-        <f>SUM(C26+E25)</f>
+        <f t="shared" si="0"/>
         <v>219895</v>
       </c>
     </row>
@@ -3018,7 +10250,7 @@
         <v>42444</v>
       </c>
       <c r="E27" s="10">
-        <f>SUM(C27+E26)</f>
+        <f t="shared" si="0"/>
         <v>262339</v>
       </c>
     </row>
@@ -3030,7 +10262,7 @@
         <v>48720</v>
       </c>
       <c r="E28" s="10">
-        <f>SUM(C28+E27)</f>
+        <f t="shared" si="0"/>
         <v>311059</v>
       </c>
     </row>
@@ -3042,7 +10274,7 @@
         <v>55813</v>
       </c>
       <c r="E29" s="10">
-        <f>SUM(C29+E28)</f>
+        <f t="shared" si="0"/>
         <v>366872</v>
       </c>
     </row>
@@ -3054,7 +10286,7 @@
         <v>63800</v>
       </c>
       <c r="E30" s="10">
-        <f>SUM(C30+E29)</f>
+        <f t="shared" si="0"/>
         <v>430672</v>
       </c>
     </row>
@@ -3066,7 +10298,7 @@
         <v>86784</v>
       </c>
       <c r="E31" s="10">
-        <f>SUM(C31+E30)</f>
+        <f t="shared" si="0"/>
         <v>517456</v>
       </c>
     </row>
@@ -3078,7 +10310,7 @@
         <v>98208</v>
       </c>
       <c r="E32" s="10">
-        <f>SUM(C32+E31)</f>
+        <f t="shared" si="0"/>
         <v>615664</v>
       </c>
     </row>
@@ -3090,7 +10322,7 @@
         <v>110932</v>
       </c>
       <c r="E33" s="10">
-        <f>SUM(C33+E32)</f>
+        <f t="shared" si="0"/>
         <v>726596</v>
       </c>
     </row>
@@ -3102,7 +10334,7 @@
         <v>124432</v>
       </c>
       <c r="E34" s="10">
-        <f>SUM(C34+E33)</f>
+        <f t="shared" ref="E34:E65" si="1">SUM(C34+E33)</f>
         <v>851028</v>
       </c>
     </row>
@@ -3114,7 +10346,7 @@
         <v>139372</v>
       </c>
       <c r="E35" s="10">
-        <f>SUM(C35+E34)</f>
+        <f t="shared" si="1"/>
         <v>990400</v>
       </c>
     </row>
@@ -3126,7 +10358,7 @@
         <v>155865</v>
       </c>
       <c r="E36" s="10">
-        <f>SUM(C36+E35)</f>
+        <f t="shared" si="1"/>
         <v>1146265</v>
       </c>
     </row>
@@ -3138,7 +10370,7 @@
         <v>173280</v>
       </c>
       <c r="E37" s="10">
-        <f>SUM(C37+E36)</f>
+        <f t="shared" si="1"/>
         <v>1319545</v>
       </c>
     </row>
@@ -3150,7 +10382,7 @@
         <v>192400</v>
       </c>
       <c r="E38" s="10">
-        <f>SUM(C38+E37)</f>
+        <f t="shared" si="1"/>
         <v>1511945</v>
       </c>
     </row>
@@ -3162,7 +10394,7 @@
         <v>213345</v>
       </c>
       <c r="E39" s="10">
-        <f>SUM(C39+E38)</f>
+        <f t="shared" si="1"/>
         <v>1725290</v>
       </c>
     </row>
@@ -3174,7 +10406,7 @@
         <v>235372</v>
       </c>
       <c r="E40" s="10">
-        <f>SUM(C40+E39)</f>
+        <f t="shared" si="1"/>
         <v>1960662</v>
       </c>
     </row>
@@ -3186,7 +10418,7 @@
         <v>259392</v>
       </c>
       <c r="E41" s="10">
-        <f>SUM(C41+E40)</f>
+        <f t="shared" si="1"/>
         <v>2220054</v>
       </c>
     </row>
@@ -3198,7 +10430,7 @@
         <v>285532</v>
       </c>
       <c r="E42" s="10">
-        <f>SUM(C42+E41)</f>
+        <f t="shared" si="1"/>
         <v>2505586</v>
       </c>
     </row>
@@ -3210,7 +10442,7 @@
         <v>312928</v>
       </c>
       <c r="E43" s="10">
-        <f>SUM(C43+E42)</f>
+        <f t="shared" si="1"/>
         <v>2818514</v>
       </c>
     </row>
@@ -3222,7 +10454,7 @@
         <v>342624</v>
       </c>
       <c r="E44" s="10">
-        <f>SUM(C44+E43)</f>
+        <f t="shared" si="1"/>
         <v>3161138</v>
       </c>
     </row>
@@ -3234,7 +10466,7 @@
         <v>374760</v>
       </c>
       <c r="E45" s="10">
-        <f>SUM(C45+E44)</f>
+        <f t="shared" si="1"/>
         <v>3535898</v>
       </c>
     </row>
@@ -3246,7 +10478,7 @@
         <v>408336</v>
       </c>
       <c r="E46" s="10">
-        <f>SUM(C46+E45)</f>
+        <f t="shared" si="1"/>
         <v>3944234</v>
       </c>
     </row>
@@ -3258,7 +10490,7 @@
         <v>445544</v>
       </c>
       <c r="E47" s="10">
-        <f>SUM(C47+E46)</f>
+        <f t="shared" si="1"/>
         <v>4389778</v>
       </c>
     </row>
@@ -3270,7 +10502,7 @@
         <v>483532</v>
       </c>
       <c r="E48" s="10">
-        <f>SUM(C48+E47)</f>
+        <f t="shared" si="1"/>
         <v>4873310</v>
       </c>
     </row>
@@ -3282,7 +10514,7 @@
         <v>524160</v>
       </c>
       <c r="E49" s="10">
-        <f>SUM(C49+E48)</f>
+        <f t="shared" si="1"/>
         <v>5397470</v>
       </c>
     </row>
@@ -3294,7 +10526,7 @@
         <v>567772</v>
       </c>
       <c r="E50" s="10">
-        <f>SUM(C50+E49)</f>
+        <f t="shared" si="1"/>
         <v>5965242</v>
       </c>
     </row>
@@ -3306,7 +10538,7 @@
         <v>598886</v>
       </c>
       <c r="E51" s="10">
-        <f>SUM(C51+E50)</f>
+        <f t="shared" si="1"/>
         <v>6564128</v>
       </c>
     </row>
@@ -3318,7 +10550,7 @@
         <v>631704</v>
       </c>
       <c r="E52" s="10">
-        <f>SUM(C52+E51)</f>
+        <f t="shared" si="1"/>
         <v>7195832</v>
       </c>
     </row>
@@ -3330,7 +10562,7 @@
         <v>666321</v>
       </c>
       <c r="E53" s="10">
-        <f>SUM(C53+E52)</f>
+        <f t="shared" si="1"/>
         <v>7862153</v>
       </c>
     </row>
@@ -3342,7 +10574,7 @@
         <v>702836</v>
       </c>
       <c r="E54" s="10">
-        <f>SUM(C54+E53)</f>
+        <f t="shared" si="1"/>
         <v>8564989</v>
       </c>
     </row>
@@ -3354,7 +10586,7 @@
         <v>741351</v>
       </c>
       <c r="E55" s="10">
-        <f>SUM(C55+E54)</f>
+        <f t="shared" si="1"/>
         <v>9306340</v>
       </c>
     </row>
@@ -3366,7 +10598,7 @@
         <v>781976</v>
       </c>
       <c r="E56" s="10">
-        <f>SUM(C56+E55)</f>
+        <f t="shared" si="1"/>
         <v>10088316</v>
       </c>
     </row>
@@ -3378,7 +10610,7 @@
         <v>824828</v>
       </c>
       <c r="E57" s="10">
-        <f>SUM(C57+E56)</f>
+        <f t="shared" si="1"/>
         <v>10913144</v>
       </c>
     </row>
@@ -3390,7 +10622,7 @@
         <v>870028</v>
       </c>
       <c r="E58" s="10">
-        <f>SUM(C58+E57)</f>
+        <f t="shared" si="1"/>
         <v>11783172</v>
       </c>
     </row>
@@ -3402,7 +10634,7 @@
         <v>917625</v>
       </c>
       <c r="E59" s="10">
-        <f>SUM(C59+E58)</f>
+        <f t="shared" si="1"/>
         <v>12700797</v>
       </c>
     </row>
@@ -3414,7 +10646,7 @@
         <v>967995</v>
       </c>
       <c r="E60" s="10">
-        <f>SUM(C60+E59)</f>
+        <f t="shared" si="1"/>
         <v>13668792</v>
       </c>
     </row>
@@ -3426,7 +10658,7 @@
         <v>1021041</v>
       </c>
       <c r="E61" s="10">
-        <f>SUM(C61+E60)</f>
+        <f t="shared" si="1"/>
         <v>14689833</v>
       </c>
     </row>
@@ -3438,7 +10670,7 @@
         <v>1076994</v>
       </c>
       <c r="E62" s="10">
-        <f>SUM(C62+E61)</f>
+        <f t="shared" si="1"/>
         <v>15766827</v>
       </c>
     </row>
@@ -3450,7 +10682,7 @@
         <v>1136013</v>
       </c>
       <c r="E63" s="10">
-        <f>SUM(C63+E62)</f>
+        <f t="shared" si="1"/>
         <v>16902840</v>
       </c>
     </row>
@@ -3462,7 +10694,7 @@
         <v>1198266</v>
       </c>
       <c r="E64" s="10">
-        <f>SUM(C64+E63)</f>
+        <f t="shared" si="1"/>
         <v>18101106</v>
       </c>
     </row>
@@ -3474,7 +10706,7 @@
         <v>1263930</v>
       </c>
       <c r="E65" s="10">
-        <f>SUM(C65+E64)</f>
+        <f t="shared" si="1"/>
         <v>19365036</v>
       </c>
     </row>
@@ -3486,7 +10718,7 @@
         <v>1333194</v>
       </c>
       <c r="E66" s="10">
-        <f>SUM(C66+E65)</f>
+        <f t="shared" ref="E66:E97" si="2">SUM(C66+E65)</f>
         <v>20698230</v>
       </c>
     </row>
@@ -3498,7 +10730,7 @@
         <v>1406252</v>
       </c>
       <c r="E67" s="10">
-        <f>SUM(C67+E66)</f>
+        <f t="shared" si="2"/>
         <v>22104482</v>
       </c>
     </row>
@@ -3510,7 +10742,7 @@
         <v>1483314</v>
       </c>
       <c r="E68" s="10">
-        <f>SUM(C68+E67)</f>
+        <f t="shared" si="2"/>
         <v>23587796</v>
       </c>
     </row>
@@ -3522,7 +10754,7 @@
         <v>1564600</v>
       </c>
       <c r="E69" s="10">
-        <f>SUM(C69+E68)</f>
+        <f t="shared" si="2"/>
         <v>25152396</v>
       </c>
     </row>
@@ -3534,7 +10766,7 @@
         <v>1650340</v>
       </c>
       <c r="E70" s="10">
-        <f>SUM(C70+E69)</f>
+        <f t="shared" si="2"/>
         <v>26802736</v>
       </c>
     </row>
@@ -3546,7 +10778,7 @@
         <v>1740778</v>
       </c>
       <c r="E71" s="10">
-        <f>SUM(C71+E70)</f>
+        <f t="shared" si="2"/>
         <v>28543514</v>
       </c>
     </row>
@@ -3558,7 +10790,7 @@
         <v>1836173</v>
       </c>
       <c r="E72" s="10">
-        <f>SUM(C72+E71)</f>
+        <f t="shared" si="2"/>
         <v>30379687</v>
       </c>
     </row>
@@ -3570,7 +10802,7 @@
         <v>1936794</v>
       </c>
       <c r="E73" s="10">
-        <f>SUM(C73+E72)</f>
+        <f t="shared" si="2"/>
         <v>32316481</v>
       </c>
     </row>
@@ -3582,7 +10814,7 @@
         <v>2042930</v>
       </c>
       <c r="E74" s="10">
-        <f>SUM(C74+E73)</f>
+        <f t="shared" si="2"/>
         <v>34359411</v>
       </c>
     </row>
@@ -3594,7 +10826,7 @@
         <v>2154882</v>
       </c>
       <c r="E75" s="10">
-        <f>SUM(C75+E74)</f>
+        <f t="shared" si="2"/>
         <v>36514293</v>
       </c>
     </row>
@@ -3606,7 +10838,7 @@
         <v>2272970</v>
       </c>
       <c r="E76" s="10">
-        <f>SUM(C76+E75)</f>
+        <f t="shared" si="2"/>
         <v>38787263</v>
       </c>
     </row>
@@ -3618,7 +10850,7 @@
         <v>2397528</v>
       </c>
       <c r="E77" s="10">
-        <f>SUM(C77+E76)</f>
+        <f t="shared" si="2"/>
         <v>41184791</v>
       </c>
     </row>
@@ -3630,7 +10862,7 @@
         <v>2528912</v>
       </c>
       <c r="E78" s="10">
-        <f>SUM(C78+E77)</f>
+        <f t="shared" si="2"/>
         <v>43713703</v>
       </c>
     </row>
@@ -3642,7 +10874,7 @@
         <v>2667496</v>
       </c>
       <c r="E79" s="10">
-        <f>SUM(C79+E78)</f>
+        <f t="shared" si="2"/>
         <v>46381199</v>
       </c>
     </row>
@@ -3654,7 +10886,7 @@
         <v>2813674</v>
       </c>
       <c r="E80" s="10">
-        <f>SUM(C80+E79)</f>
+        <f t="shared" si="2"/>
         <v>49194873</v>
       </c>
     </row>
@@ -3666,7 +10898,7 @@
         <v>2967863</v>
       </c>
       <c r="E81" s="10">
-        <f>SUM(C81+E80)</f>
+        <f t="shared" si="2"/>
         <v>52162736</v>
       </c>
     </row>
@@ -3678,7 +10910,7 @@
         <v>3130502</v>
       </c>
       <c r="E82" s="10">
-        <f>SUM(C82+E81)</f>
+        <f t="shared" si="2"/>
         <v>55293238</v>
       </c>
     </row>
@@ -3690,7 +10922,7 @@
         <v>3302053</v>
       </c>
       <c r="E83" s="10">
-        <f>SUM(C83+E82)</f>
+        <f t="shared" si="2"/>
         <v>58595291</v>
       </c>
     </row>
@@ -3702,7 +10934,7 @@
         <v>3483005</v>
       </c>
       <c r="E84" s="10">
-        <f>SUM(C84+E83)</f>
+        <f t="shared" si="2"/>
         <v>62078296</v>
       </c>
     </row>
@@ -3714,7 +10946,7 @@
         <v>3673873</v>
       </c>
       <c r="E85" s="10">
-        <f>SUM(C85+E84)</f>
+        <f t="shared" si="2"/>
         <v>65752169</v>
       </c>
     </row>
@@ -3726,7 +10958,7 @@
         <v>3875201</v>
       </c>
       <c r="E86" s="10">
-        <f>SUM(C86+E85)</f>
+        <f t="shared" si="2"/>
         <v>69627370</v>
       </c>
     </row>
@@ -3738,7 +10970,7 @@
         <v>4087562</v>
       </c>
       <c r="E87" s="10">
-        <f>SUM(C87+E86)</f>
+        <f t="shared" si="2"/>
         <v>73714932</v>
       </c>
     </row>
@@ -3750,7 +10982,7 @@
         <v>4311559</v>
       </c>
       <c r="E88" s="10">
-        <f>SUM(C88+E87)</f>
+        <f t="shared" si="2"/>
         <v>78026491</v>
       </c>
     </row>
@@ -3762,7 +10994,7 @@
         <v>4547832</v>
       </c>
       <c r="E89" s="10">
-        <f>SUM(C89+E88)</f>
+        <f t="shared" si="2"/>
         <v>82574323</v>
       </c>
     </row>
@@ -3774,7 +11006,7 @@
         <v>4797053</v>
       </c>
       <c r="E90" s="10">
-        <f>SUM(C90+E89)</f>
+        <f t="shared" si="2"/>
         <v>87371376</v>
       </c>
     </row>
@@ -3786,7 +11018,7 @@
         <v>5059931</v>
       </c>
       <c r="E91" s="10">
-        <f>SUM(C91+E90)</f>
+        <f t="shared" si="2"/>
         <v>92431307</v>
       </c>
     </row>
@@ -3798,7 +11030,7 @@
         <v>5337215</v>
       </c>
       <c r="E92" s="10">
-        <f>SUM(C92+E91)</f>
+        <f t="shared" si="2"/>
         <v>97768522</v>
       </c>
     </row>
@@ -3810,7 +11042,7 @@
         <v>5629694</v>
       </c>
       <c r="E93" s="10">
-        <f>SUM(C93+E92)</f>
+        <f t="shared" si="2"/>
         <v>103398216</v>
       </c>
     </row>
@@ -3822,7 +11054,7 @@
         <v>5938202</v>
       </c>
       <c r="E94" s="10">
-        <f>SUM(C94+E93)</f>
+        <f t="shared" si="2"/>
         <v>109336418</v>
       </c>
     </row>
@@ -3834,7 +11066,7 @@
         <v>6263614</v>
       </c>
       <c r="E95" s="10">
-        <f>SUM(C95+E94)</f>
+        <f t="shared" si="2"/>
         <v>115600032</v>
       </c>
     </row>
@@ -3846,7 +11078,7 @@
         <v>6606860</v>
       </c>
       <c r="E96" s="10">
-        <f>SUM(C96+E95)</f>
+        <f t="shared" si="2"/>
         <v>122206892</v>
       </c>
     </row>
@@ -3858,7 +11090,7 @@
         <v>6968915</v>
       </c>
       <c r="E97" s="10">
-        <f>SUM(C97+E96)</f>
+        <f t="shared" si="2"/>
         <v>129175807</v>
       </c>
     </row>
@@ -3870,7 +11102,7 @@
         <v>7350811</v>
       </c>
       <c r="E98" s="10">
-        <f>SUM(C98+E97)</f>
+        <f t="shared" ref="E98:E129" si="3">SUM(C98+E97)</f>
         <v>136526618</v>
       </c>
     </row>
@@ -3882,7 +11114,7 @@
         <v>7753635</v>
       </c>
       <c r="E99" s="10">
-        <f>SUM(C99+E98)</f>
+        <f t="shared" si="3"/>
         <v>144280253</v>
       </c>
     </row>
@@ -3894,7 +11126,7 @@
         <v>8178534</v>
       </c>
       <c r="E100" s="10">
-        <f>SUM(C100+E99)</f>
+        <f t="shared" si="3"/>
         <v>152458787</v>
       </c>
     </row>
@@ -3906,7 +11138,7 @@
         <v>8626718</v>
       </c>
       <c r="E101" s="10">
-        <f>SUM(C101+E100)</f>
+        <f t="shared" si="3"/>
         <v>161085505</v>
       </c>
     </row>
@@ -3918,7 +11150,7 @@
         <v>9099462</v>
       </c>
       <c r="E102" s="10">
-        <f>SUM(C102+E101)</f>
+        <f t="shared" si="3"/>
         <v>170184967</v>
       </c>
     </row>
@@ -3930,7 +11162,7 @@
         <v>9598112</v>
       </c>
       <c r="E103" s="10">
-        <f>SUM(C103+E102)</f>
+        <f t="shared" si="3"/>
         <v>179783079</v>
       </c>
     </row>
@@ -3942,7 +11174,7 @@
         <v>10124088</v>
       </c>
       <c r="E104" s="10">
-        <f>SUM(C104+E103)</f>
+        <f t="shared" si="3"/>
         <v>189907167</v>
       </c>
     </row>
@@ -3954,7 +11186,7 @@
         <v>10678888</v>
       </c>
       <c r="E105" s="10">
-        <f>SUM(C105+E104)</f>
+        <f t="shared" si="3"/>
         <v>200586055</v>
       </c>
     </row>
@@ -3966,7 +11198,7 @@
         <v>11264090</v>
       </c>
       <c r="E106" s="10">
-        <f>SUM(C106+E105)</f>
+        <f t="shared" si="3"/>
         <v>211850145</v>
       </c>
     </row>
@@ -3978,7 +11210,7 @@
         <v>11881362</v>
       </c>
       <c r="E107" s="10">
-        <f>SUM(C107+E106)</f>
+        <f t="shared" si="3"/>
         <v>223731507</v>
       </c>
     </row>
@@ -3990,7 +11222,7 @@
         <v>12532461</v>
       </c>
       <c r="E108" s="10">
-        <f>SUM(C108+E107)</f>
+        <f t="shared" si="3"/>
         <v>236263968</v>
       </c>
     </row>
@@ -4002,7 +11234,7 @@
         <v>13219239</v>
       </c>
       <c r="E109" s="10">
-        <f>SUM(C109+E108)</f>
+        <f t="shared" si="3"/>
         <v>249483207</v>
       </c>
     </row>
@@ -4014,7 +11246,7 @@
         <v>13943653</v>
       </c>
       <c r="E110" s="10">
-        <f>SUM(C110+E109)</f>
+        <f t="shared" si="3"/>
         <v>263426860</v>
       </c>
     </row>
@@ -4026,7 +11258,7 @@
         <v>14707765</v>
       </c>
       <c r="E111" s="10">
-        <f>SUM(C111+E110)</f>
+        <f t="shared" si="3"/>
         <v>278134625</v>
       </c>
     </row>
@@ -4038,7 +11270,7 @@
         <v>15513750</v>
       </c>
       <c r="E112" s="10">
-        <f>SUM(C112+E111)</f>
+        <f t="shared" si="3"/>
         <v>293648375</v>
       </c>
     </row>
@@ -4050,7 +11282,7 @@
         <v>16363902</v>
       </c>
       <c r="E113" s="10">
-        <f>SUM(C113+E112)</f>
+        <f t="shared" si="3"/>
         <v>310012277</v>
       </c>
     </row>
@@ -4062,7 +11294,7 @@
         <v>17260644</v>
       </c>
       <c r="E114" s="10">
-        <f>SUM(C114+E113)</f>
+        <f t="shared" si="3"/>
         <v>327272921</v>
       </c>
     </row>
@@ -4074,7 +11306,7 @@
         <v>18206527</v>
       </c>
       <c r="E115" s="10">
-        <f>SUM(C115+E114)</f>
+        <f t="shared" si="3"/>
         <v>345479448</v>
       </c>
     </row>
@@ -4086,7 +11318,7 @@
         <v>19204245</v>
       </c>
       <c r="E116" s="10">
-        <f>SUM(C116+E115)</f>
+        <f t="shared" si="3"/>
         <v>364683693</v>
       </c>
     </row>
@@ -4098,7 +11330,7 @@
         <v>20256637</v>
       </c>
       <c r="E117" s="10">
-        <f>SUM(C117+E116)</f>
+        <f t="shared" si="3"/>
         <v>384940330</v>
       </c>
     </row>
@@ -4110,7 +11342,7 @@
         <v>21366700</v>
       </c>
       <c r="E118" s="10">
-        <f>SUM(C118+E117)</f>
+        <f t="shared" si="3"/>
         <v>406307030</v>
       </c>
     </row>
@@ -4122,7 +11354,7 @@
         <v>22537594</v>
       </c>
       <c r="E119" s="10">
-        <f>SUM(C119+E118)</f>
+        <f t="shared" si="3"/>
         <v>428844624</v>
       </c>
     </row>
@@ -4134,7 +11366,7 @@
         <v>23772654</v>
       </c>
       <c r="E120" s="10">
-        <f>SUM(C120+E119)</f>
+        <f t="shared" si="3"/>
         <v>452617278</v>
       </c>
     </row>
@@ -4146,7 +11378,7 @@
         <v>25075395</v>
       </c>
       <c r="E121" s="10">
-        <f>SUM(C121+E120)</f>
+        <f t="shared" si="3"/>
         <v>477692673</v>
       </c>
     </row>
@@ -4158,7 +11390,7 @@
         <v>26449526</v>
       </c>
       <c r="E122" s="10">
-        <f>SUM(C122+E121)</f>
+        <f t="shared" si="3"/>
         <v>504142199</v>
       </c>
     </row>
@@ -4170,7 +11402,7 @@
         <v>27898960</v>
       </c>
       <c r="E123" s="10">
-        <f>SUM(C123+E122)</f>
+        <f t="shared" si="3"/>
         <v>532041159</v>
       </c>
     </row>
@@ -4182,7 +11414,7 @@
         <v>29427822</v>
       </c>
       <c r="E124" s="10">
-        <f>SUM(C124+E123)</f>
+        <f t="shared" si="3"/>
         <v>561468981</v>
       </c>
     </row>
@@ -4194,7 +11426,7 @@
         <v>31040466</v>
       </c>
       <c r="E125" s="10">
-        <f>SUM(C125+E124)</f>
+        <f t="shared" si="3"/>
         <v>592509447</v>
       </c>
     </row>
@@ -4206,7 +11438,7 @@
         <v>32741483</v>
       </c>
       <c r="E126" s="10">
-        <f>SUM(C126+E125)</f>
+        <f t="shared" si="3"/>
         <v>625250930</v>
       </c>
     </row>
@@ -4218,7 +11450,7 @@
         <v>34535716</v>
       </c>
       <c r="E127" s="10">
-        <f>SUM(C127+E126)</f>
+        <f t="shared" si="3"/>
         <v>659786646</v>
       </c>
     </row>
@@ -4230,7 +11462,7 @@
         <v>36428273</v>
       </c>
       <c r="E128" s="10">
-        <f>SUM(C128+E127)</f>
+        <f t="shared" si="3"/>
         <v>696214919</v>
       </c>
     </row>
@@ -4242,7 +11474,7 @@
         <v>38424542</v>
       </c>
       <c r="E129" s="10">
-        <f>SUM(C129+E128)</f>
+        <f t="shared" si="3"/>
         <v>734639461</v>
       </c>
     </row>
@@ -4254,7 +11486,7 @@
         <v>40530206</v>
       </c>
       <c r="E130" s="10">
-        <f>SUM(C130+E129)</f>
+        <f t="shared" ref="E130:E161" si="4">SUM(C130+E129)</f>
         <v>775169667</v>
       </c>
     </row>
@@ -4266,7 +11498,7 @@
         <v>42751262</v>
       </c>
       <c r="E131" s="10">
-        <f>SUM(C131+E130)</f>
+        <f t="shared" si="4"/>
         <v>817920929</v>
       </c>
     </row>
@@ -4278,7 +11510,7 @@
         <v>45094030</v>
       </c>
       <c r="E132" s="10">
-        <f>SUM(C132+E131)</f>
+        <f t="shared" si="4"/>
         <v>863014959</v>
       </c>
     </row>
@@ -4290,7 +11522,7 @@
         <v>47565183</v>
       </c>
       <c r="E133" s="10">
-        <f>SUM(C133+E132)</f>
+        <f t="shared" si="4"/>
         <v>910580142</v>
       </c>
     </row>
@@ -4302,7 +11534,7 @@
         <v>50171755</v>
       </c>
       <c r="E134" s="10">
-        <f>SUM(C134+E133)</f>
+        <f t="shared" si="4"/>
         <v>960751897</v>
       </c>
       <c r="H134" s="19"/>
@@ -4316,7 +11548,7 @@
         <v>52921167</v>
       </c>
       <c r="E135" s="10">
-        <f>SUM(C135+E134)</f>
+        <f t="shared" si="4"/>
         <v>1013673064</v>
       </c>
       <c r="H135" s="19"/>
@@ -4330,7 +11562,7 @@
         <v>55821246</v>
       </c>
       <c r="E136" s="10">
-        <f>SUM(C136+E135)</f>
+        <f t="shared" si="4"/>
         <v>1069494310</v>
       </c>
       <c r="H136" s="19"/>
@@ -4344,7 +11576,7 @@
         <v>58880250</v>
       </c>
       <c r="E137" s="10">
-        <f>SUM(C137+E136)</f>
+        <f t="shared" si="4"/>
         <v>1128374560</v>
       </c>
       <c r="H137" s="19"/>
@@ -4358,7 +11590,7 @@
         <v>62106888</v>
       </c>
       <c r="E138" s="10">
-        <f>SUM(C138+E137)</f>
+        <f t="shared" si="4"/>
         <v>1190481448</v>
       </c>
       <c r="H138" s="19"/>
@@ -4372,7 +11604,7 @@
         <v>65510344</v>
       </c>
       <c r="E139" s="10">
-        <f>SUM(C139+E138)</f>
+        <f t="shared" si="4"/>
         <v>1255991792</v>
       </c>
       <c r="H139" s="19"/>
@@ -4386,7 +11618,7 @@
         <v>69100311</v>
       </c>
       <c r="E140" s="10">
-        <f>SUM(C140+E139)</f>
+        <f t="shared" si="4"/>
         <v>1325092103</v>
       </c>
       <c r="H140" s="19"/>
@@ -4400,7 +11632,7 @@
         <v>72887008</v>
       </c>
       <c r="E141" s="10">
-        <f>SUM(C141+E140)</f>
+        <f t="shared" si="4"/>
         <v>1397979111</v>
       </c>
       <c r="H141" s="19"/>
@@ -4414,7 +11646,7 @@
         <v>76881216</v>
       </c>
       <c r="E142" s="10">
-        <f>SUM(C142+E141)</f>
+        <f t="shared" si="4"/>
         <v>1474860327</v>
       </c>
     </row>
@@ -4426,7 +11658,7 @@
         <v>81094306</v>
       </c>
       <c r="E143" s="10">
-        <f>SUM(C143+E142)</f>
+        <f t="shared" si="4"/>
         <v>1555954633</v>
       </c>
     </row>
@@ -4438,7 +11670,7 @@
         <v>85594273</v>
       </c>
       <c r="E144" s="10">
-        <f>SUM(C144+E143)</f>
+        <f t="shared" si="4"/>
         <v>1641548906</v>
       </c>
     </row>
@@ -4450,7 +11682,7 @@
         <v>90225770</v>
       </c>
       <c r="E145" s="10">
-        <f>SUM(C145+E144)</f>
+        <f t="shared" si="4"/>
         <v>1731774676</v>
       </c>
     </row>
@@ -4462,7 +11694,7 @@
         <v>95170142</v>
       </c>
       <c r="E146" s="10">
-        <f>SUM(C146+E145)</f>
+        <f t="shared" si="4"/>
         <v>1826944818</v>
       </c>
     </row>
@@ -4474,7 +11706,7 @@
         <v>100385466</v>
       </c>
       <c r="E147" s="10">
-        <f>SUM(C147+E146)</f>
+        <f t="shared" si="4"/>
         <v>1927330284</v>
       </c>
     </row>
@@ -4486,7 +11718,7 @@
         <v>105886589</v>
       </c>
       <c r="E148" s="10">
-        <f>SUM(C148+E147)</f>
+        <f t="shared" si="4"/>
         <v>2033216873</v>
       </c>
     </row>
@@ -4498,7 +11730,7 @@
         <v>111689174</v>
       </c>
       <c r="E149" s="10">
-        <f>SUM(C149+E148)</f>
+        <f t="shared" si="4"/>
         <v>2144906047</v>
       </c>
     </row>
@@ -4510,7 +11742,7 @@
         <v>117809740</v>
       </c>
       <c r="E150" s="10">
-        <f>SUM(C150+E149)</f>
+        <f t="shared" si="4"/>
         <v>2262715787</v>
       </c>
     </row>
@@ -4522,7 +11754,7 @@
         <v>124265714</v>
       </c>
       <c r="E151" s="10">
-        <f>SUM(C151+E150)</f>
+        <f t="shared" si="4"/>
         <v>2386981501</v>
       </c>
     </row>
@@ -4534,7 +11766,7 @@
         <v>131075474</v>
       </c>
       <c r="E152" s="10">
-        <f>SUM(C152+E151)</f>
+        <f t="shared" si="4"/>
         <v>2518056975</v>
       </c>
     </row>
@@ -4546,7 +11778,7 @@
         <v>138258410</v>
       </c>
       <c r="E153" s="10">
-        <f>SUM(C153+E152)</f>
+        <f t="shared" si="4"/>
         <v>2656315385</v>
       </c>
     </row>
@@ -4558,7 +11790,7 @@
         <v>145834970</v>
       </c>
       <c r="E154" s="10">
-        <f>SUM(C154+E153)</f>
+        <f t="shared" si="4"/>
         <v>2802150355</v>
       </c>
     </row>
@@ -4570,7 +11802,7 @@
         <v>153826726</v>
       </c>
       <c r="E155" s="10">
-        <f>SUM(C155+E154)</f>
+        <f t="shared" si="4"/>
         <v>2955977081</v>
       </c>
     </row>
@@ -4582,7 +11814,7 @@
         <v>162256430</v>
       </c>
       <c r="E156" s="10">
-        <f>SUM(C156+E155)</f>
+        <f t="shared" si="4"/>
         <v>3118233511</v>
       </c>
     </row>
@@ -4594,7 +11826,7 @@
         <v>171148082</v>
       </c>
       <c r="E157" s="10">
-        <f>SUM(C157+E156)</f>
+        <f t="shared" si="4"/>
         <v>3289381593</v>
       </c>
       <c r="F157" s="19"/>
@@ -4608,7 +11840,7 @@
         <v>180526997</v>
       </c>
       <c r="E158" s="10">
-        <f>SUM(C158+E157)</f>
+        <f t="shared" si="4"/>
         <v>3469908590</v>
       </c>
       <c r="F158" s="19"/>
@@ -4622,7 +11854,7 @@
         <v>190419876</v>
       </c>
       <c r="E159" s="10">
-        <f>SUM(C159+E158)</f>
+        <f t="shared" si="4"/>
         <v>3660328466</v>
       </c>
       <c r="F159" s="19"/>
@@ -4636,7 +11868,7 @@
         <v>200854885</v>
       </c>
       <c r="E160" s="10">
-        <f>SUM(C160+E159)</f>
+        <f t="shared" si="4"/>
         <v>3861183351</v>
       </c>
       <c r="F160" s="19"/>
@@ -4650,7 +11882,7 @@
         <v>211861732</v>
       </c>
       <c r="E161" s="10">
-        <f>SUM(C161+E160)</f>
+        <f t="shared" si="4"/>
         <v>4073045083</v>
       </c>
       <c r="F161" s="19"/>
@@ -4664,7 +11896,7 @@
         <v>223471711</v>
       </c>
       <c r="E162" s="10">
-        <f>SUM(C162+E161)</f>
+        <f t="shared" ref="E162:E193" si="5">SUM(C162+E161)</f>
         <v>4296516794</v>
       </c>
       <c r="F162" s="19"/>
@@ -4678,7 +11910,7 @@
         <v>223471711</v>
       </c>
       <c r="E163" s="10">
-        <f>SUM(C163+E162)</f>
+        <f t="shared" si="5"/>
         <v>4519988505</v>
       </c>
       <c r="F163" s="19"/>
@@ -4692,7 +11924,7 @@
         <v>248635353</v>
       </c>
       <c r="E164" s="10">
-        <f>SUM(C164+E163)</f>
+        <f t="shared" si="5"/>
         <v>4768623858</v>
       </c>
       <c r="F164" s="19"/>
@@ -4706,7 +11938,7 @@
         <v>262260570</v>
       </c>
       <c r="E165" s="10">
-        <f>SUM(C165+E164)</f>
+        <f t="shared" si="5"/>
         <v>5030884428</v>
       </c>
       <c r="F165" s="19"/>
@@ -4720,7 +11952,7 @@
         <v>276632449</v>
       </c>
       <c r="E166" s="10">
-        <f>SUM(C166+E165)</f>
+        <f t="shared" si="5"/>
         <v>5307516877</v>
       </c>
       <c r="F166" s="19"/>
@@ -4734,7 +11966,7 @@
         <v>291791906</v>
       </c>
       <c r="E167" s="10">
-        <f>SUM(C167+E166)</f>
+        <f t="shared" si="5"/>
         <v>5599308783</v>
       </c>
       <c r="F167" s="19"/>
@@ -4748,7 +11980,7 @@
         <v>307782102</v>
       </c>
       <c r="E168" s="10">
-        <f>SUM(C168+E167)</f>
+        <f t="shared" si="5"/>
         <v>5907090885</v>
       </c>
       <c r="F168" s="19"/>
@@ -4762,7 +11994,7 @@
         <v>324648562</v>
       </c>
       <c r="E169" s="10">
-        <f>SUM(C169+E168)</f>
+        <f t="shared" si="5"/>
         <v>6231739447</v>
       </c>
       <c r="F169" s="19"/>
@@ -4776,7 +12008,7 @@
         <v>342439302</v>
       </c>
       <c r="E170" s="10">
-        <f>SUM(C170+E169)</f>
+        <f t="shared" si="5"/>
         <v>6574178749</v>
       </c>
       <c r="F170" s="19"/>
@@ -4790,7 +12022,7 @@
         <v>361204976</v>
       </c>
       <c r="E171" s="10">
-        <f>SUM(C171+E170)</f>
+        <f t="shared" si="5"/>
         <v>6935383725</v>
       </c>
       <c r="F171" s="22"/>
@@ -4804,7 +12036,7 @@
         <v>380999008</v>
       </c>
       <c r="E172" s="10">
-        <f>SUM(C172+E171)</f>
+        <f t="shared" si="5"/>
         <v>7316382733</v>
       </c>
     </row>
@@ -4816,7 +12048,7 @@
         <v>401877754</v>
       </c>
       <c r="E173" s="10">
-        <f>SUM(C173+E172)</f>
+        <f t="shared" si="5"/>
         <v>7718260487</v>
       </c>
     </row>
@@ -4828,7 +12060,7 @@
         <v>423900654</v>
       </c>
       <c r="E174" s="10">
-        <f>SUM(C174+E173)</f>
+        <f t="shared" si="5"/>
         <v>8142161141</v>
       </c>
     </row>
@@ -4840,7 +12072,7 @@
         <v>447130410</v>
       </c>
       <c r="E175" s="10">
-        <f>SUM(C175+E174)</f>
+        <f t="shared" si="5"/>
         <v>8589291551</v>
       </c>
     </row>
@@ -4852,7 +12084,7 @@
         <v>471633156</v>
       </c>
       <c r="E176" s="10">
-        <f>SUM(C176+E175)</f>
+        <f t="shared" si="5"/>
         <v>9060924707</v>
       </c>
     </row>
@@ -4864,7 +12096,7 @@
         <v>497478653</v>
       </c>
       <c r="E177" s="10">
-        <f>SUM(C177+E176)</f>
+        <f t="shared" si="5"/>
         <v>9558403360</v>
       </c>
     </row>
@@ -4876,7 +12108,7 @@
         <v>524740482</v>
       </c>
       <c r="E178" s="10">
-        <f>SUM(C178+E177)</f>
+        <f t="shared" si="5"/>
         <v>10083143842</v>
       </c>
     </row>
@@ -4888,7 +12120,7 @@
         <v>553496261</v>
       </c>
       <c r="E179" s="10">
-        <f>SUM(C179+E178)</f>
+        <f t="shared" si="5"/>
         <v>10636640103</v>
       </c>
     </row>
@@ -4900,7 +12132,7 @@
         <v>583827855</v>
       </c>
       <c r="E180" s="10">
-        <f>SUM(C180+E179)</f>
+        <f t="shared" si="5"/>
         <v>11220467958</v>
       </c>
     </row>
@@ -4912,7 +12144,7 @@
         <v>615821622</v>
       </c>
       <c r="E181" s="10">
-        <f>SUM(C181+E180)</f>
+        <f t="shared" si="5"/>
         <v>11836289580</v>
       </c>
     </row>
@@ -4924,7 +12156,7 @@
         <v>649568646</v>
       </c>
       <c r="E182" s="10">
-        <f>SUM(C182+E181)</f>
+        <f t="shared" si="5"/>
         <v>12485858226</v>
       </c>
     </row>
@@ -4936,7 +12168,7 @@
         <v>685165008</v>
       </c>
       <c r="E183" s="10">
-        <f>SUM(C183+E182)</f>
+        <f t="shared" si="5"/>
         <v>13171023234</v>
       </c>
     </row>
@@ -4948,7 +12180,7 @@
         <v>722712050</v>
       </c>
       <c r="E184" s="10">
-        <f>SUM(C184+E183)</f>
+        <f t="shared" si="5"/>
         <v>13893735284</v>
       </c>
     </row>
@@ -4960,7 +12192,7 @@
         <v>762316670</v>
       </c>
       <c r="E185" s="10">
-        <f>SUM(C185+E184)</f>
+        <f t="shared" si="5"/>
         <v>14656051954</v>
       </c>
     </row>
@@ -4972,7 +12204,7 @@
         <v>804091623</v>
       </c>
       <c r="E186" s="10">
-        <f>SUM(C186+E185)</f>
+        <f t="shared" si="5"/>
         <v>15460143577</v>
       </c>
     </row>
@@ -4984,7 +12216,7 @@
         <v>848155844</v>
       </c>
       <c r="E187" s="10">
-        <f>SUM(C187+E186)</f>
+        <f t="shared" si="5"/>
         <v>16308299421</v>
       </c>
     </row>
@@ -4996,7 +12228,7 @@
         <v>894634784</v>
       </c>
       <c r="E188" s="10">
-        <f>SUM(C188+E187)</f>
+        <f t="shared" si="5"/>
         <v>17202934205</v>
       </c>
     </row>
@@ -5008,7 +12240,7 @@
         <v>943660770</v>
       </c>
       <c r="E189" s="10">
-        <f>SUM(C189+E188)</f>
+        <f t="shared" si="5"/>
         <v>18146594975</v>
       </c>
     </row>
@@ -5020,7 +12252,7 @@
         <v>995373379</v>
       </c>
       <c r="E190" s="10">
-        <f>SUM(C190+E189)</f>
+        <f t="shared" si="5"/>
         <v>19141968354</v>
       </c>
     </row>
@@ -5032,7 +12264,7 @@
         <v>1049919840</v>
       </c>
       <c r="E191" s="10">
-        <f>SUM(C191+E190)</f>
+        <f t="shared" si="5"/>
         <v>20191888194</v>
       </c>
     </row>
@@ -5044,7 +12276,7 @@
         <v>1107455447</v>
       </c>
       <c r="E192" s="10">
-        <f>SUM(C192+E191)</f>
+        <f t="shared" si="5"/>
         <v>21299343641</v>
       </c>
     </row>
@@ -5056,7 +12288,7 @@
         <v>1168144006</v>
       </c>
       <c r="E193" s="10">
-        <f>SUM(C193+E192)</f>
+        <f t="shared" si="5"/>
         <v>22467487647</v>
       </c>
     </row>
@@ -5068,7 +12300,7 @@
         <v>1232158297</v>
       </c>
       <c r="E194" s="10">
-        <f>SUM(C194+E193)</f>
+        <f t="shared" ref="E194:E200" si="6">SUM(C194+E193)</f>
         <v>23699645944</v>
       </c>
     </row>
@@ -5080,7 +12312,7 @@
         <v>1299680571</v>
       </c>
       <c r="E195" s="10">
-        <f>SUM(C195+E194)</f>
+        <f t="shared" si="6"/>
         <v>24999326515</v>
       </c>
     </row>
@@ -5092,7 +12324,7 @@
         <v>1370903066</v>
       </c>
       <c r="E196" s="10">
-        <f>SUM(C196+E195)</f>
+        <f t="shared" si="6"/>
         <v>26370229581</v>
       </c>
     </row>
@@ -5104,7 +12336,7 @@
         <v>1446028554</v>
       </c>
       <c r="E197" s="10">
-        <f>SUM(C197+E196)</f>
+        <f t="shared" si="6"/>
         <v>27816258135</v>
       </c>
     </row>
@@ -5116,7 +12348,7 @@
         <v>1525246918</v>
       </c>
       <c r="E198" s="10">
-        <f>SUM(C198+E197)</f>
+        <f t="shared" si="6"/>
         <v>29341505053</v>
       </c>
     </row>
@@ -5128,7 +12360,7 @@
         <v>1608855764</v>
       </c>
       <c r="E199" s="10">
-        <f>SUM(C199+E198)</f>
+        <f t="shared" si="6"/>
         <v>30950360817</v>
       </c>
     </row>
@@ -5140,7 +12372,7 @@
         <v>1697021059</v>
       </c>
       <c r="E200" s="10">
-        <f>SUM(C200+E199)</f>
+        <f t="shared" si="6"/>
         <v>32647381876</v>
       </c>
     </row>

--- a/Gimmix/MS Exp Curve.xlsx
+++ b/Gimmix/MS Exp Curve.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Creature</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Ensnaring Bridge?</t>
+  </si>
+  <si>
+    <t>Skill Dmg</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1640,11 +1642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="277733464"/>
-        <c:axId val="277733072"/>
+        <c:axId val="289646936"/>
+        <c:axId val="289647328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277733464"/>
+        <c:axId val="289646936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277733072"/>
+        <c:crossAx val="289647328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1695,7 +1697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277733072"/>
+        <c:axId val="289647328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277733464"/>
+        <c:crossAx val="289646936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2879,6 +2881,9 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -2934,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="Y3">
-        <f>ROUNDUP(SUM((-0.0949*B3)+18.0949),0)</f>
+        <f>ROUNDUP(SUM((-0.09*B3)+18),0)</f>
         <v>18</v>
       </c>
     </row>
@@ -2943,11 +2948,11 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">ROUNDDOWN(SUM((B4*5)+8 +Y4),0)</f>
+        <f t="shared" ref="C4:C51" si="0">ROUNDDOWN(SUM((B4*5)+8 +Y4),0)</f>
         <v>36</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">ROUNDDOWN(SUM((B4/2)+4),0)</f>
+        <f t="shared" ref="D4:D51" si="1">ROUNDDOWN(SUM((B4/2)+4),0)</f>
         <v>5</v>
       </c>
       <c r="E4">
@@ -2969,7 +2974,7 @@
         <v>31</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y67" si="3">ROUNDUP(SUM((-0.0949*B4)+18.0949),0)</f>
+        <f t="shared" ref="Y4:Y67" si="3">ROUNDUP(SUM((-0.09*B4)+18),0)</f>
         <v>18</v>
       </c>
     </row>
@@ -4029,7 +4034,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -4047,15 +4052,15 @@
       </c>
       <c r="K35">
         <f>ROUNDDOWN(SUM(0.5*M35),0)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="Y35">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:25">
@@ -4414,7 +4419,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -4432,15 +4437,15 @@
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="Y46">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:25">
@@ -4764,7 +4769,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="8"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D56">
         <f t="shared" si="9"/>
@@ -4782,15 +4787,15 @@
       </c>
       <c r="K56">
         <f t="shared" si="7"/>
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="Y56">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="2:25">
@@ -4799,7 +4804,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="8"/>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D57">
         <f t="shared" si="9"/>
@@ -4817,15 +4822,15 @@
       </c>
       <c r="K57">
         <f t="shared" si="7"/>
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="Y57">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:25">
@@ -5149,7 +5154,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="8"/>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D67">
         <f t="shared" si="9"/>
@@ -5167,15 +5172,15 @@
       </c>
       <c r="K67">
         <f t="shared" si="7"/>
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="Y67">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:25">
@@ -5184,7 +5189,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="8"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D68">
         <f t="shared" si="9"/>
@@ -5202,15 +5207,15 @@
       </c>
       <c r="K68">
         <f t="shared" si="7"/>
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
-        <v>2095</v>
+        <v>2101</v>
       </c>
       <c r="Y68">
-        <f t="shared" ref="Y68:Y131" si="10">ROUNDUP(SUM((-0.0949*B68)+18.0949),0)</f>
-        <v>12</v>
+        <f t="shared" ref="Y68:Y131" si="10">ROUNDUP(SUM((-0.09*B68)+18),0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:25">
@@ -5499,7 +5504,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="8"/>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
@@ -5517,15 +5522,15 @@
       </c>
       <c r="K77">
         <f t="shared" si="7"/>
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="M77">
         <f t="shared" si="11"/>
-        <v>2717</v>
+        <v>2723</v>
       </c>
       <c r="Y77">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:25">
@@ -5534,7 +5539,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="8"/>
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
@@ -5552,15 +5557,15 @@
       </c>
       <c r="K78">
         <f t="shared" si="7"/>
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="M78">
         <f t="shared" si="11"/>
-        <v>2788</v>
+        <v>2795</v>
       </c>
       <c r="Y78">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:25">
@@ -5569,7 +5574,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="8"/>
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
@@ -5587,15 +5592,15 @@
       </c>
       <c r="K79">
         <f t="shared" si="7"/>
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="M79">
         <f t="shared" si="11"/>
-        <v>2878</v>
+        <v>2885</v>
       </c>
       <c r="Y79">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:25">
@@ -5884,7 +5889,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="8"/>
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
@@ -5902,15 +5907,15 @@
       </c>
       <c r="K88">
         <f t="shared" si="7"/>
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="M88">
         <f t="shared" si="11"/>
-        <v>3642</v>
+        <v>3649</v>
       </c>
       <c r="Y88">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:25">
@@ -5919,7 +5924,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="8"/>
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
@@ -5937,15 +5942,15 @@
       </c>
       <c r="K89">
         <f t="shared" si="7"/>
-        <v>2233</v>
+        <v>2238</v>
       </c>
       <c r="M89">
         <f t="shared" si="11"/>
-        <v>3722</v>
+        <v>3730</v>
       </c>
       <c r="Y89">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="2:25">
@@ -5954,7 +5959,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="8"/>
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
@@ -5972,15 +5977,15 @@
       </c>
       <c r="K90">
         <f t="shared" si="7"/>
-        <v>2296</v>
+        <v>2301</v>
       </c>
       <c r="M90">
         <f t="shared" si="11"/>
-        <v>3827</v>
+        <v>3835</v>
       </c>
       <c r="Y90">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:25">
@@ -6234,7 +6239,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="8"/>
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
@@ -6252,15 +6257,15 @@
       </c>
       <c r="K98">
         <f t="shared" si="7"/>
-        <v>2763</v>
+        <v>2769</v>
       </c>
       <c r="M98">
         <f t="shared" si="11"/>
-        <v>4606</v>
+        <v>4615</v>
       </c>
       <c r="Y98">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="2:25">
@@ -6269,7 +6274,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="8"/>
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
@@ -6287,15 +6292,15 @@
       </c>
       <c r="K99">
         <f t="shared" si="7"/>
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="M99">
         <f t="shared" si="11"/>
-        <v>4720</v>
+        <v>4729</v>
       </c>
       <c r="Y99">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="2:25">
@@ -6304,7 +6309,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="8"/>
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
@@ -6322,15 +6327,15 @@
       </c>
       <c r="K100">
         <f t="shared" si="7"/>
-        <v>2902</v>
+        <v>2908</v>
       </c>
       <c r="M100">
         <f t="shared" si="11"/>
-        <v>4838</v>
+        <v>4847</v>
       </c>
       <c r="Y100">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="2:25">
@@ -6339,7 +6344,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="8"/>
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
@@ -6357,15 +6362,15 @@
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
-        <v>2958</v>
+        <v>2963</v>
       </c>
       <c r="M101">
         <f t="shared" si="11"/>
-        <v>4930</v>
+        <v>4939</v>
       </c>
       <c r="Y101">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="2:25">
@@ -6619,7 +6624,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="8"/>
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D109">
         <f t="shared" si="9"/>
@@ -6637,15 +6642,15 @@
       </c>
       <c r="K109">
         <f t="shared" si="13"/>
-        <v>3530</v>
+        <v>3536</v>
       </c>
       <c r="M109">
         <f t="shared" si="11"/>
-        <v>5884</v>
+        <v>5894</v>
       </c>
       <c r="Y109">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="2:25">
@@ -6654,7 +6659,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="8"/>
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D110">
         <f t="shared" si="9"/>
@@ -6672,15 +6677,15 @@
       </c>
       <c r="K110">
         <f t="shared" si="13"/>
-        <v>3609</v>
+        <v>3615</v>
       </c>
       <c r="M110">
         <f t="shared" si="11"/>
-        <v>6015</v>
+        <v>6025</v>
       </c>
       <c r="Y110">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="2:25">
@@ -6689,7 +6694,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="8"/>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D111">
         <f t="shared" si="9"/>
@@ -6707,15 +6712,15 @@
       </c>
       <c r="K111">
         <f t="shared" si="13"/>
-        <v>3670</v>
+        <v>3676</v>
       </c>
       <c r="M111">
         <f t="shared" si="11"/>
-        <v>6118</v>
+        <v>6128</v>
       </c>
       <c r="Y111">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="2:25">
@@ -6724,7 +6729,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="8"/>
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D112">
         <f t="shared" si="9"/>
@@ -6742,15 +6747,15 @@
       </c>
       <c r="K112">
         <f t="shared" si="13"/>
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="M112">
         <f t="shared" si="11"/>
-        <v>6251</v>
+        <v>6262</v>
       </c>
       <c r="Y112">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="2:25">
@@ -6759,7 +6764,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="8"/>
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D113">
         <f t="shared" si="9"/>
@@ -6777,15 +6782,15 @@
       </c>
       <c r="K113">
         <f t="shared" si="13"/>
-        <v>3829</v>
+        <v>3836</v>
       </c>
       <c r="M113">
         <f t="shared" si="11"/>
-        <v>6383</v>
+        <v>6394</v>
       </c>
       <c r="Y113">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="2:25">
@@ -6969,7 +6974,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="14"/>
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D119">
         <f t="shared" si="15"/>
@@ -6987,15 +6992,15 @@
       </c>
       <c r="K119">
         <f t="shared" si="13"/>
-        <v>4320</v>
+        <v>4326</v>
       </c>
       <c r="M119">
         <f t="shared" si="11"/>
-        <v>7200</v>
+        <v>7211</v>
       </c>
       <c r="Y119">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="2:25">
@@ -7004,7 +7009,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="14"/>
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D120">
         <f t="shared" si="15"/>
@@ -7022,15 +7027,15 @@
       </c>
       <c r="K120">
         <f t="shared" si="13"/>
-        <v>4406</v>
+        <v>4413</v>
       </c>
       <c r="M120">
         <f t="shared" si="11"/>
-        <v>7344</v>
+        <v>7355</v>
       </c>
       <c r="Y120">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="2:25">
@@ -7039,7 +7044,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="14"/>
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D121">
         <f t="shared" si="15"/>
@@ -7057,15 +7062,15 @@
       </c>
       <c r="K121">
         <f t="shared" si="13"/>
-        <v>4491</v>
+        <v>4498</v>
       </c>
       <c r="M121">
         <f t="shared" si="11"/>
-        <v>7486</v>
+        <v>7498</v>
       </c>
       <c r="Y121">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="2:25">
@@ -7074,7 +7079,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="14"/>
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D122">
         <f t="shared" si="15"/>
@@ -7092,15 +7097,15 @@
       </c>
       <c r="K122">
         <f t="shared" si="13"/>
-        <v>4579</v>
+        <v>4587</v>
       </c>
       <c r="M122">
         <f t="shared" si="11"/>
-        <v>7633</v>
+        <v>7645</v>
       </c>
       <c r="Y122">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="2:25">
@@ -7109,7 +7114,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="14"/>
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D123">
         <f t="shared" si="15"/>
@@ -7127,15 +7132,15 @@
       </c>
       <c r="K123">
         <f t="shared" si="13"/>
-        <v>4666</v>
+        <v>4674</v>
       </c>
       <c r="M123">
         <f t="shared" si="11"/>
-        <v>7778</v>
+        <v>7790</v>
       </c>
       <c r="Y123">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="2:25">
@@ -7144,7 +7149,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="14"/>
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D124">
         <f t="shared" si="15"/>
@@ -7162,15 +7167,15 @@
       </c>
       <c r="K124">
         <f t="shared" si="13"/>
-        <v>4756</v>
+        <v>4763</v>
       </c>
       <c r="M124">
         <f t="shared" si="11"/>
-        <v>7927</v>
+        <v>7939</v>
       </c>
       <c r="Y124">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="2:25">
@@ -7354,7 +7359,7 @@
       </c>
       <c r="C130">
         <f t="shared" si="14"/>
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D130">
         <f t="shared" si="15"/>
@@ -7372,15 +7377,15 @@
       </c>
       <c r="K130">
         <f t="shared" si="13"/>
-        <v>5316</v>
+        <v>5324</v>
       </c>
       <c r="M130">
         <f t="shared" si="11"/>
-        <v>8861</v>
+        <v>8874</v>
       </c>
       <c r="Y130">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="2:25">
@@ -7389,7 +7394,7 @@
       </c>
       <c r="C131">
         <f t="shared" si="14"/>
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D131">
         <f t="shared" si="15"/>
@@ -7407,15 +7412,15 @@
       </c>
       <c r="K131">
         <f t="shared" si="13"/>
-        <v>5410</v>
+        <v>5418</v>
       </c>
       <c r="M131">
         <f t="shared" si="11"/>
-        <v>9017</v>
+        <v>9030</v>
       </c>
       <c r="Y131">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="2:25">
@@ -7424,7 +7429,7 @@
       </c>
       <c r="C132">
         <f t="shared" si="14"/>
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D132">
         <f t="shared" si="15"/>
@@ -7442,15 +7447,15 @@
       </c>
       <c r="K132">
         <f t="shared" si="13"/>
-        <v>5506</v>
+        <v>5514</v>
       </c>
       <c r="M132">
         <f t="shared" si="11"/>
-        <v>9178</v>
+        <v>9191</v>
       </c>
       <c r="Y132">
-        <f t="shared" ref="Y132:Y195" si="16">ROUNDUP(SUM((-0.0949*B132)+18.0949),0)</f>
-        <v>6</v>
+        <f t="shared" ref="Y132:Y195" si="16">ROUNDUP(SUM((-0.09*B132)+18),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="2:25">
@@ -7459,7 +7464,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="14"/>
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D133">
         <f t="shared" si="15"/>
@@ -7477,15 +7482,15 @@
       </c>
       <c r="K133">
         <f t="shared" si="13"/>
-        <v>5602</v>
+        <v>5610</v>
       </c>
       <c r="M133">
         <f t="shared" ref="M133:M196" si="17">ROUNDDOWN(SUM(1.1*((4*C133)+D133)*(H133/100)),0)</f>
-        <v>9337</v>
+        <v>9350</v>
       </c>
       <c r="Y133">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="2:25">
@@ -7494,7 +7499,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="14"/>
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D134">
         <f t="shared" si="15"/>
@@ -7512,15 +7517,15 @@
       </c>
       <c r="K134">
         <f t="shared" si="13"/>
-        <v>5718</v>
+        <v>5726</v>
       </c>
       <c r="M134">
         <f t="shared" si="17"/>
-        <v>9531</v>
+        <v>9544</v>
       </c>
       <c r="Y134">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="2:25">
@@ -7529,7 +7534,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="14"/>
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D135">
         <f t="shared" si="15"/>
@@ -7547,15 +7552,15 @@
       </c>
       <c r="K135">
         <f t="shared" si="13"/>
-        <v>5815</v>
+        <v>5823</v>
       </c>
       <c r="M135">
         <f t="shared" si="17"/>
-        <v>9693</v>
+        <v>9706</v>
       </c>
       <c r="Y135">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="2:25">
@@ -7704,7 +7709,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="14"/>
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D140">
         <f t="shared" si="15"/>
@@ -7722,15 +7727,15 @@
       </c>
       <c r="K140">
         <f t="shared" si="13"/>
-        <v>6329</v>
+        <v>6337</v>
       </c>
       <c r="M140">
         <f t="shared" si="17"/>
-        <v>10549</v>
+        <v>10563</v>
       </c>
       <c r="Y140">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="2:25">
@@ -7739,7 +7744,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="14"/>
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D141">
         <f t="shared" si="15"/>
@@ -7757,15 +7762,15 @@
       </c>
       <c r="K141">
         <f t="shared" si="13"/>
-        <v>6450</v>
+        <v>6459</v>
       </c>
       <c r="M141">
         <f t="shared" si="17"/>
-        <v>10751</v>
+        <v>10766</v>
       </c>
       <c r="Y141">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="2:25">
@@ -7774,7 +7779,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="14"/>
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D142">
         <f t="shared" si="15"/>
@@ -7792,15 +7797,15 @@
       </c>
       <c r="K142">
         <f t="shared" si="13"/>
-        <v>6555</v>
+        <v>6564</v>
       </c>
       <c r="M142">
         <f t="shared" si="17"/>
-        <v>10926</v>
+        <v>10941</v>
       </c>
       <c r="Y142">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="2:25">
@@ -7809,7 +7814,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="14"/>
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D143">
         <f t="shared" si="15"/>
@@ -7827,15 +7832,15 @@
       </c>
       <c r="K143">
         <f t="shared" si="13"/>
-        <v>6659</v>
+        <v>6667</v>
       </c>
       <c r="M143">
         <f t="shared" si="17"/>
-        <v>11099</v>
+        <v>11113</v>
       </c>
       <c r="Y143">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="2:25">
@@ -7844,7 +7849,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="14"/>
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D144">
         <f t="shared" si="15"/>
@@ -7862,15 +7867,15 @@
       </c>
       <c r="K144">
         <f t="shared" si="13"/>
-        <v>6786</v>
+        <v>6795</v>
       </c>
       <c r="M144">
         <f t="shared" si="17"/>
-        <v>11310</v>
+        <v>11325</v>
       </c>
       <c r="Y144">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="2:25">
@@ -7879,7 +7884,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="14"/>
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D145">
         <f t="shared" si="15"/>
@@ -7897,15 +7902,15 @@
       </c>
       <c r="K145">
         <f t="shared" si="13"/>
-        <v>6891</v>
+        <v>6900</v>
       </c>
       <c r="M145">
         <f t="shared" si="17"/>
-        <v>11485</v>
+        <v>11500</v>
       </c>
       <c r="Y145">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="2:25">
@@ -7914,7 +7919,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="14"/>
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D146">
         <f t="shared" si="15"/>
@@ -7932,15 +7937,15 @@
       </c>
       <c r="K146">
         <f t="shared" si="13"/>
-        <v>7019</v>
+        <v>7029</v>
       </c>
       <c r="M146">
         <f t="shared" si="17"/>
-        <v>11699</v>
+        <v>11715</v>
       </c>
       <c r="Y146">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="2:25">
@@ -8089,7 +8094,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="14"/>
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D151">
         <f t="shared" si="15"/>
@@ -8107,15 +8112,15 @@
       </c>
       <c r="K151">
         <f t="shared" si="13"/>
-        <v>7599</v>
+        <v>7609</v>
       </c>
       <c r="M151">
         <f t="shared" si="17"/>
-        <v>12666</v>
+        <v>12682</v>
       </c>
       <c r="Y151">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="2:25">
@@ -8124,7 +8129,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="14"/>
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D152">
         <f t="shared" si="15"/>
@@ -8142,15 +8147,15 @@
       </c>
       <c r="K152">
         <f t="shared" si="13"/>
-        <v>7734</v>
+        <v>7744</v>
       </c>
       <c r="M152">
         <f t="shared" si="17"/>
-        <v>12891</v>
+        <v>12907</v>
       </c>
       <c r="Y152">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="2:25">
@@ -8159,7 +8164,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="14"/>
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D153">
         <f t="shared" si="15"/>
@@ -8177,15 +8182,15 @@
       </c>
       <c r="K153">
         <f t="shared" si="13"/>
-        <v>7846</v>
+        <v>7856</v>
       </c>
       <c r="M153">
         <f t="shared" si="17"/>
-        <v>13078</v>
+        <v>13094</v>
       </c>
       <c r="Y153">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="2:25">
@@ -8194,7 +8199,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="14"/>
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D154">
         <f t="shared" si="15"/>
@@ -8212,15 +8217,15 @@
       </c>
       <c r="K154">
         <f t="shared" si="13"/>
-        <v>7983</v>
+        <v>7993</v>
       </c>
       <c r="M154">
         <f t="shared" si="17"/>
-        <v>13306</v>
+        <v>13322</v>
       </c>
       <c r="Y154">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="2:25">
@@ -8229,7 +8234,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="14"/>
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D155">
         <f t="shared" si="15"/>
@@ -8247,15 +8252,15 @@
       </c>
       <c r="K155">
         <f t="shared" si="13"/>
-        <v>8097</v>
+        <v>8107</v>
       </c>
       <c r="M155">
         <f t="shared" si="17"/>
-        <v>13495</v>
+        <v>13512</v>
       </c>
       <c r="Y155">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="2:25">
@@ -8264,7 +8269,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="14"/>
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D156">
         <f t="shared" si="15"/>
@@ -8282,15 +8287,15 @@
       </c>
       <c r="K156">
         <f t="shared" si="13"/>
-        <v>8236</v>
+        <v>8245</v>
       </c>
       <c r="M156">
         <f t="shared" si="17"/>
-        <v>13727</v>
+        <v>13743</v>
       </c>
       <c r="Y156">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="2:25">
@@ -8299,7 +8304,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="14"/>
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D157">
         <f t="shared" si="15"/>
@@ -8317,15 +8322,15 @@
       </c>
       <c r="K157">
         <f t="shared" si="13"/>
-        <v>8351</v>
+        <v>8361</v>
       </c>
       <c r="M157">
         <f t="shared" si="17"/>
-        <v>13919</v>
+        <v>13936</v>
       </c>
       <c r="Y157">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="2:25">
@@ -8474,7 +8479,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="14"/>
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D162">
         <f t="shared" si="15"/>
@@ -8492,15 +8497,15 @@
       </c>
       <c r="K162">
         <f t="shared" si="13"/>
-        <v>9028</v>
+        <v>9039</v>
       </c>
       <c r="M162">
         <f t="shared" si="17"/>
-        <v>15048</v>
+        <v>15065</v>
       </c>
       <c r="Y162">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="2:25">
@@ -8509,7 +8514,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="14"/>
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D163">
         <f t="shared" si="15"/>
@@ -8527,15 +8532,15 @@
       </c>
       <c r="K163">
         <f t="shared" si="13"/>
-        <v>9149</v>
+        <v>9160</v>
       </c>
       <c r="M163">
         <f t="shared" si="17"/>
-        <v>15249</v>
+        <v>15267</v>
       </c>
       <c r="Y163">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="2:25">
@@ -8544,7 +8549,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="14"/>
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D164">
         <f t="shared" si="15"/>
@@ -8562,15 +8567,15 @@
       </c>
       <c r="K164">
         <f t="shared" si="13"/>
-        <v>9296</v>
+        <v>9307</v>
       </c>
       <c r="M164">
         <f t="shared" si="17"/>
-        <v>15494</v>
+        <v>15512</v>
       </c>
       <c r="Y164">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="2:25">
@@ -8579,7 +8584,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="14"/>
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D165">
         <f t="shared" si="15"/>
@@ -8597,15 +8602,15 @@
       </c>
       <c r="K165">
         <f t="shared" si="13"/>
-        <v>9441</v>
+        <v>9453</v>
       </c>
       <c r="M165">
         <f t="shared" si="17"/>
-        <v>15736</v>
+        <v>15755</v>
       </c>
       <c r="Y165">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="2:25">
@@ -8614,7 +8619,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="14"/>
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D166">
         <f t="shared" si="15"/>
@@ -8632,15 +8637,15 @@
       </c>
       <c r="K166">
         <f t="shared" ref="K166:K202" si="21">ROUNDDOWN(SUM(0.6*M166),0)</f>
-        <v>9591</v>
+        <v>9602</v>
       </c>
       <c r="M166">
         <f t="shared" si="17"/>
-        <v>15985</v>
+        <v>16004</v>
       </c>
       <c r="Y166">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="2:25">
@@ -8649,7 +8654,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="14"/>
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D167">
         <f t="shared" si="15"/>
@@ -8667,15 +8672,15 @@
       </c>
       <c r="K167">
         <f t="shared" si="21"/>
-        <v>9715</v>
+        <v>9726</v>
       </c>
       <c r="M167">
         <f t="shared" si="17"/>
-        <v>16193</v>
+        <v>16211</v>
       </c>
       <c r="Y167">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:25">
@@ -8684,7 +8689,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="14"/>
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D168">
         <f t="shared" si="15"/>
@@ -8702,15 +8707,15 @@
       </c>
       <c r="K168">
         <f t="shared" si="21"/>
-        <v>9867</v>
+        <v>9877</v>
       </c>
       <c r="M168">
         <f t="shared" si="17"/>
-        <v>16445</v>
+        <v>16463</v>
       </c>
       <c r="Y168">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="2:25">
@@ -8824,7 +8829,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="14"/>
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D172">
         <f t="shared" si="15"/>
@@ -8842,15 +8847,15 @@
       </c>
       <c r="K172">
         <f t="shared" si="21"/>
-        <v>10441</v>
+        <v>10453</v>
       </c>
       <c r="M172">
         <f t="shared" si="17"/>
-        <v>17403</v>
+        <v>17423</v>
       </c>
       <c r="Y172">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="2:25">
@@ -8859,7 +8864,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="14"/>
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D173">
         <f t="shared" si="15"/>
@@ -8877,15 +8882,15 @@
       </c>
       <c r="K173">
         <f t="shared" si="21"/>
-        <v>10595</v>
+        <v>10607</v>
       </c>
       <c r="M173">
         <f t="shared" si="17"/>
-        <v>17659</v>
+        <v>17679</v>
       </c>
       <c r="Y173">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="2:25">
@@ -8894,7 +8899,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="14"/>
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D174">
         <f t="shared" si="15"/>
@@ -8912,15 +8917,15 @@
       </c>
       <c r="K174">
         <f t="shared" si="21"/>
-        <v>10753</v>
+        <v>10765</v>
       </c>
       <c r="M174">
         <f t="shared" si="17"/>
-        <v>17922</v>
+        <v>17942</v>
       </c>
       <c r="Y174">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="2:25">
@@ -8929,7 +8934,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="14"/>
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D175">
         <f t="shared" si="15"/>
@@ -8947,15 +8952,15 @@
       </c>
       <c r="K175">
         <f t="shared" si="21"/>
-        <v>10909</v>
+        <v>10920</v>
       </c>
       <c r="M175">
         <f t="shared" si="17"/>
-        <v>18182</v>
+        <v>18201</v>
       </c>
       <c r="Y175">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="2:25">
@@ -8964,7 +8969,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="14"/>
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D176">
         <f t="shared" si="15"/>
@@ -8982,15 +8987,15 @@
       </c>
       <c r="K176">
         <f t="shared" si="21"/>
-        <v>11068</v>
+        <v>11080</v>
       </c>
       <c r="M176">
         <f t="shared" si="17"/>
-        <v>18448</v>
+        <v>18468</v>
       </c>
       <c r="Y176">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="2:25">
@@ -8999,7 +9004,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="14"/>
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D177">
         <f t="shared" si="15"/>
@@ -9017,15 +9022,15 @@
       </c>
       <c r="K177">
         <f t="shared" si="21"/>
-        <v>11226</v>
+        <v>11238</v>
       </c>
       <c r="M177">
         <f t="shared" si="17"/>
-        <v>18711</v>
+        <v>18731</v>
       </c>
       <c r="Y177">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="2:25">
@@ -9034,7 +9039,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="14"/>
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D178">
         <f t="shared" si="15"/>
@@ -9052,15 +9057,15 @@
       </c>
       <c r="K178">
         <f t="shared" si="21"/>
-        <v>11388</v>
+        <v>11400</v>
       </c>
       <c r="M178">
         <f t="shared" si="17"/>
-        <v>18981</v>
+        <v>19001</v>
       </c>
       <c r="Y178">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="2:25">
@@ -9069,7 +9074,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="14"/>
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D179">
         <f t="shared" si="15"/>
@@ -9087,15 +9092,15 @@
       </c>
       <c r="K179">
         <f t="shared" si="21"/>
-        <v>11548</v>
+        <v>11560</v>
       </c>
       <c r="M179">
         <f t="shared" si="17"/>
-        <v>19248</v>
+        <v>19268</v>
       </c>
       <c r="Y179">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="2:25">
@@ -9209,7 +9214,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="22"/>
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D183">
         <f t="shared" si="23"/>
@@ -9227,15 +9232,15 @@
       </c>
       <c r="K183">
         <f t="shared" si="21"/>
-        <v>12193</v>
+        <v>12205</v>
       </c>
       <c r="M183">
         <f t="shared" si="17"/>
-        <v>20322</v>
+        <v>20343</v>
       </c>
       <c r="Y183">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="2:25">
@@ -9244,7 +9249,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="22"/>
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D184">
         <f t="shared" si="23"/>
@@ -9262,15 +9267,15 @@
       </c>
       <c r="K184">
         <f t="shared" si="21"/>
-        <v>12361</v>
+        <v>12374</v>
       </c>
       <c r="M184">
         <f t="shared" si="17"/>
-        <v>20603</v>
+        <v>20624</v>
       </c>
       <c r="Y184">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="2:25">
@@ -9279,7 +9284,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="22"/>
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D185">
         <f t="shared" si="23"/>
@@ -9297,15 +9302,15 @@
       </c>
       <c r="K185">
         <f t="shared" si="21"/>
-        <v>12528</v>
+        <v>12540</v>
       </c>
       <c r="M185">
         <f t="shared" si="17"/>
-        <v>20880</v>
+        <v>20901</v>
       </c>
       <c r="Y185">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="2:25">
@@ -9314,7 +9319,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="22"/>
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D186">
         <f t="shared" si="23"/>
@@ -9332,15 +9337,15 @@
       </c>
       <c r="K186">
         <f t="shared" si="21"/>
-        <v>12698</v>
+        <v>12711</v>
       </c>
       <c r="M186">
         <f t="shared" si="17"/>
-        <v>21164</v>
+        <v>21186</v>
       </c>
       <c r="Y186">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="2:25">
@@ -9349,7 +9354,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="22"/>
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D187">
         <f t="shared" si="23"/>
@@ -9367,15 +9372,15 @@
       </c>
       <c r="K187">
         <f t="shared" si="21"/>
-        <v>12867</v>
+        <v>12880</v>
       </c>
       <c r="M187">
         <f t="shared" si="17"/>
-        <v>21445</v>
+        <v>21467</v>
       </c>
       <c r="Y187">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="2:25">
@@ -9384,7 +9389,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="22"/>
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D188">
         <f t="shared" si="23"/>
@@ -9402,15 +9407,15 @@
       </c>
       <c r="K188">
         <f t="shared" si="21"/>
-        <v>13039</v>
+        <v>13053</v>
       </c>
       <c r="M188">
         <f t="shared" si="17"/>
-        <v>21733</v>
+        <v>21755</v>
       </c>
       <c r="Y188">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="2:25">
@@ -9419,7 +9424,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="22"/>
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D189">
         <f t="shared" si="23"/>
@@ -9437,15 +9442,15 @@
       </c>
       <c r="K189">
         <f t="shared" si="21"/>
-        <v>13210</v>
+        <v>13224</v>
       </c>
       <c r="M189">
         <f t="shared" si="17"/>
-        <v>22017</v>
+        <v>22040</v>
       </c>
       <c r="Y189">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="2:25">
@@ -9454,7 +9459,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="22"/>
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D190">
         <f t="shared" si="23"/>
@@ -9472,15 +9477,15 @@
       </c>
       <c r="K190">
         <f t="shared" si="21"/>
-        <v>13385</v>
+        <v>13399</v>
       </c>
       <c r="M190">
         <f t="shared" si="17"/>
-        <v>22309</v>
+        <v>22332</v>
       </c>
       <c r="Y190">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="2:25">
@@ -9559,7 +9564,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="22"/>
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D193">
         <f t="shared" si="23"/>
@@ -9577,15 +9582,15 @@
       </c>
       <c r="K193">
         <f t="shared" si="21"/>
-        <v>13909</v>
+        <v>13936</v>
       </c>
       <c r="M193">
         <f t="shared" si="17"/>
-        <v>23182</v>
+        <v>23228</v>
       </c>
       <c r="Y193">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="2:25">
@@ -9594,7 +9599,7 @@
       </c>
       <c r="C194">
         <f t="shared" si="22"/>
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D194">
         <f t="shared" si="23"/>
@@ -9612,15 +9617,15 @@
       </c>
       <c r="K194">
         <f t="shared" si="21"/>
-        <v>14088</v>
+        <v>14116</v>
       </c>
       <c r="M194">
         <f t="shared" si="17"/>
-        <v>23481</v>
+        <v>23528</v>
       </c>
       <c r="Y194">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="2:25">
@@ -9629,7 +9634,7 @@
       </c>
       <c r="C195">
         <f t="shared" si="22"/>
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D195">
         <f t="shared" si="23"/>
@@ -9647,15 +9652,15 @@
       </c>
       <c r="K195">
         <f t="shared" si="21"/>
-        <v>14265</v>
+        <v>14293</v>
       </c>
       <c r="M195">
         <f t="shared" si="17"/>
-        <v>23776</v>
+        <v>23823</v>
       </c>
       <c r="Y195">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="2:25">
@@ -9664,7 +9669,7 @@
       </c>
       <c r="C196">
         <f t="shared" si="22"/>
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D196">
         <f t="shared" si="23"/>
@@ -9682,15 +9687,15 @@
       </c>
       <c r="K196">
         <f t="shared" si="21"/>
-        <v>14447</v>
+        <v>14475</v>
       </c>
       <c r="M196">
         <f t="shared" si="17"/>
-        <v>24079</v>
+        <v>24126</v>
       </c>
       <c r="Y196">
-        <f t="shared" ref="Y196:Y202" si="24">ROUNDUP(SUM((-0.0949*B196)+18.0949),0)</f>
-        <v>-1</v>
+        <f t="shared" ref="Y196:Y202" si="24">ROUNDUP(SUM((-0.09*B196)+18),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="2:25">
@@ -9699,7 +9704,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="22"/>
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D197">
         <f t="shared" si="23"/>
@@ -9717,15 +9722,15 @@
       </c>
       <c r="K197">
         <f t="shared" si="21"/>
-        <v>14653</v>
+        <v>14682</v>
       </c>
       <c r="M197">
         <f t="shared" ref="M197:M202" si="25">ROUNDDOWN(SUM(1.1*((4*C197)+D197)*(H197/100)),0)</f>
-        <v>24422</v>
+        <v>24470</v>
       </c>
       <c r="Y197">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="2:25">
@@ -9733,12 +9738,10 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <f t="shared" si="22"/>
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D198">
-        <f t="shared" si="23"/>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -9752,15 +9755,15 @@
       </c>
       <c r="K198">
         <f t="shared" si="21"/>
-        <v>14837</v>
+        <v>14812</v>
       </c>
       <c r="M198">
         <f t="shared" si="25"/>
-        <v>24729</v>
+        <v>24687</v>
       </c>
       <c r="Y198">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="2:25">
@@ -9768,12 +9771,10 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <f t="shared" si="22"/>
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D199">
-        <f t="shared" si="23"/>
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -9787,15 +9788,15 @@
       </c>
       <c r="K199">
         <f t="shared" si="21"/>
-        <v>15018</v>
+        <v>14938</v>
       </c>
       <c r="M199">
         <f t="shared" si="25"/>
-        <v>25031</v>
+        <v>24898</v>
       </c>
       <c r="Y199">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="2:25">
@@ -9803,12 +9804,10 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <f t="shared" si="22"/>
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D200">
-        <f t="shared" si="23"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E200">
         <v>4</v>
@@ -9822,15 +9821,15 @@
       </c>
       <c r="K200">
         <f t="shared" si="21"/>
-        <v>15204</v>
+        <v>15069</v>
       </c>
       <c r="M200">
         <f t="shared" si="25"/>
-        <v>25341</v>
+        <v>25116</v>
       </c>
       <c r="Y200">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="2:25">
@@ -9838,12 +9837,10 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <f t="shared" si="22"/>
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="D201">
-        <f t="shared" si="23"/>
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E201">
         <v>4</v>
@@ -9857,15 +9854,15 @@
       </c>
       <c r="K201">
         <f t="shared" si="21"/>
-        <v>15415</v>
+        <v>15228</v>
       </c>
       <c r="M201">
         <f t="shared" si="25"/>
-        <v>25693</v>
+        <v>25380</v>
       </c>
       <c r="Y201">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="2:25">
@@ -9873,12 +9870,10 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <f t="shared" si="22"/>
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="D202">
-        <f t="shared" si="23"/>
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E202">
         <v>4</v>
@@ -9892,15 +9887,15 @@
       </c>
       <c r="K202">
         <f t="shared" si="21"/>
-        <v>15604</v>
+        <v>15355</v>
       </c>
       <c r="M202">
         <f t="shared" si="25"/>
-        <v>26007</v>
+        <v>25593</v>
       </c>
       <c r="Y202">
         <f t="shared" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
